--- a/Ravens-since-2008.xlsx
+++ b/Ravens-since-2008.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="304">
   <si>
     <t>Flacco Career Ratings</t>
   </si>
@@ -926,6 +926,12 @@
   </si>
   <si>
     <t>HomeOrAway</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -1988,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O108"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="J92" sqref="J92:J108"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2071,6 +2077,15 @@
       <c r="F4" t="s">
         <v>39</v>
       </c>
+      <c r="G4">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>302</v>
+      </c>
       <c r="J4" t="str">
         <f>IF(ISERROR(FIND("at",E4)=1),"HOME", "AWAY")</f>
         <v>AWAY</v>
@@ -2107,6 +2122,15 @@
       <c r="F5" t="s">
         <v>46</v>
       </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>302</v>
+      </c>
       <c r="J5" t="str">
         <f t="shared" ref="J5:J19" si="0">IF(ISERROR(FIND("at",E5)=1),"HOME", "AWAY")</f>
         <v>HOME</v>
@@ -2143,6 +2167,15 @@
       <c r="F6" t="s">
         <v>51</v>
       </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>303</v>
+      </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
         <v>HOME</v>
@@ -2179,6 +2212,15 @@
       <c r="F7" t="s">
         <v>54</v>
       </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>302</v>
+      </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
@@ -2215,6 +2257,15 @@
       <c r="F8" t="s">
         <v>58</v>
       </c>
+      <c r="G8">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>303</v>
+      </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
@@ -2251,6 +2302,15 @@
       <c r="F9" t="s">
         <v>62</v>
       </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>302</v>
+      </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
         <v>HOME</v>
@@ -2287,6 +2347,15 @@
       <c r="F10" t="s">
         <v>67</v>
       </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>302</v>
+      </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
@@ -2323,6 +2392,15 @@
       <c r="F11" t="s">
         <v>71</v>
       </c>
+      <c r="G11">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>302</v>
+      </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
@@ -2359,6 +2437,15 @@
       <c r="F12" t="s">
         <v>75</v>
       </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>303</v>
+      </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
@@ -2395,6 +2482,15 @@
       <c r="F13" t="s">
         <v>78</v>
       </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>302</v>
+      </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
@@ -2431,6 +2527,15 @@
       <c r="F14" t="s">
         <v>82</v>
       </c>
+      <c r="G14">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>303</v>
+      </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
         <v>HOME</v>
@@ -2467,6 +2572,15 @@
       <c r="F15" t="s">
         <v>85</v>
       </c>
+      <c r="G15">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>303</v>
+      </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
         <v>HOME</v>
@@ -2503,6 +2617,15 @@
       <c r="F16" t="s">
         <v>88</v>
       </c>
+      <c r="G16">
+        <v>29</v>
+      </c>
+      <c r="H16">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>303</v>
+      </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
         <v>HOME</v>
@@ -2539,6 +2662,15 @@
       <c r="F17" t="s">
         <v>92</v>
       </c>
+      <c r="G17">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>303</v>
+      </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
@@ -2575,6 +2707,15 @@
       <c r="F18" t="s">
         <v>97</v>
       </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>302</v>
+      </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
@@ -2611,6 +2752,15 @@
       <c r="F19" t="s">
         <v>101</v>
       </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>302</v>
+      </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
@@ -2647,6 +2797,15 @@
       <c r="F22" t="s">
         <v>105</v>
       </c>
+      <c r="G22">
+        <v>44</v>
+      </c>
+      <c r="H22">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>303</v>
+      </c>
       <c r="J22" t="str">
         <f t="shared" ref="J22:J37" si="1">IF(ISERROR(FIND("at",E22)=1),"HOME", "AWAY")</f>
         <v>AWAY</v>
@@ -2683,6 +2842,15 @@
       <c r="F23" t="s">
         <v>109</v>
       </c>
+      <c r="G23">
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>302</v>
+      </c>
       <c r="J23" t="str">
         <f t="shared" si="1"/>
         <v>AWAY</v>
@@ -2719,6 +2887,15 @@
       <c r="F24" t="s">
         <v>112</v>
       </c>
+      <c r="G24">
+        <v>31</v>
+      </c>
+      <c r="H24">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>303</v>
+      </c>
       <c r="J24" t="str">
         <f t="shared" si="1"/>
         <v>AWAY</v>
@@ -2755,6 +2932,15 @@
       <c r="F25" t="s">
         <v>113</v>
       </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>303</v>
+      </c>
       <c r="J25" t="str">
         <f t="shared" si="1"/>
         <v>HOME</v>
@@ -2791,6 +2977,15 @@
       <c r="F26" t="s">
         <v>117</v>
       </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>303</v>
+      </c>
       <c r="J26" t="str">
         <f t="shared" si="1"/>
         <v>AWAY</v>
@@ -2827,6 +3022,15 @@
       <c r="F27" t="s">
         <v>121</v>
       </c>
+      <c r="G27">
+        <v>31</v>
+      </c>
+      <c r="H27">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>303</v>
+      </c>
       <c r="J27" t="str">
         <f t="shared" si="1"/>
         <v>HOME</v>
@@ -2863,6 +3067,15 @@
       <c r="F28" t="s">
         <v>124</v>
       </c>
+      <c r="G28">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s">
+        <v>303</v>
+      </c>
       <c r="J28" t="str">
         <f t="shared" si="1"/>
         <v>AWAY</v>
@@ -2899,6 +3112,15 @@
       <c r="F29" t="s">
         <v>127</v>
       </c>
+      <c r="G29">
+        <v>25</v>
+      </c>
+      <c r="H29">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>303</v>
+      </c>
       <c r="J29" t="str">
         <f t="shared" si="1"/>
         <v>AWAY</v>
@@ -2935,6 +3157,15 @@
       <c r="F30" t="s">
         <v>131</v>
       </c>
+      <c r="G30">
+        <v>55</v>
+      </c>
+      <c r="H30">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>303</v>
+      </c>
       <c r="J30" t="str">
         <f t="shared" si="1"/>
         <v>HOME</v>
@@ -2971,6 +3202,15 @@
       <c r="F31" t="s">
         <v>133</v>
       </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>303</v>
+      </c>
       <c r="J31" t="str">
         <f t="shared" si="1"/>
         <v>AWAY</v>
@@ -3007,6 +3247,15 @@
       <c r="F32" t="s">
         <v>137</v>
       </c>
+      <c r="G32">
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>303</v>
+      </c>
       <c r="J32" t="str">
         <f t="shared" si="1"/>
         <v>AWAY</v>
@@ -3043,6 +3292,15 @@
       <c r="F33" t="s">
         <v>54</v>
       </c>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="H33">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
+        <v>302</v>
+      </c>
       <c r="J33" t="str">
         <f t="shared" si="1"/>
         <v>HOME</v>
@@ -3079,6 +3337,15 @@
       <c r="F34" t="s">
         <v>142</v>
       </c>
+      <c r="G34">
+        <v>28</v>
+      </c>
+      <c r="H34">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s">
+        <v>302</v>
+      </c>
       <c r="J34" t="str">
         <f t="shared" si="1"/>
         <v>AWAY</v>
@@ -3115,6 +3382,15 @@
       <c r="F35" t="s">
         <v>101</v>
       </c>
+      <c r="G35">
+        <v>17</v>
+      </c>
+      <c r="H35">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s">
+        <v>302</v>
+      </c>
       <c r="J35" t="str">
         <f t="shared" si="1"/>
         <v>HOME</v>
@@ -3151,6 +3427,15 @@
       <c r="F36" t="s">
         <v>149</v>
       </c>
+      <c r="G36">
+        <v>33</v>
+      </c>
+      <c r="H36">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>303</v>
+      </c>
       <c r="J36" t="str">
         <f t="shared" si="1"/>
         <v>HOME</v>
@@ -3187,6 +3472,15 @@
       <c r="F37" t="s">
         <v>151</v>
       </c>
+      <c r="G37">
+        <v>17</v>
+      </c>
+      <c r="H37">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
+        <v>302</v>
+      </c>
       <c r="J37" t="str">
         <f t="shared" si="1"/>
         <v>AWAY</v>
@@ -3223,6 +3517,15 @@
       <c r="F40" t="s">
         <v>154</v>
       </c>
+      <c r="G40">
+        <v>35</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40" t="s">
+        <v>303</v>
+      </c>
       <c r="J40" t="str">
         <f t="shared" ref="J40:J55" si="2">IF(ISERROR(FIND("at",E40)=1),"HOME", "AWAY")</f>
         <v>HOME</v>
@@ -3259,6 +3562,15 @@
       <c r="F41" t="s">
         <v>156</v>
       </c>
+      <c r="G41">
+        <v>13</v>
+      </c>
+      <c r="H41">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s">
+        <v>302</v>
+      </c>
       <c r="J41" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
@@ -3295,6 +3607,15 @@
       <c r="F42" t="s">
         <v>159</v>
       </c>
+      <c r="G42">
+        <v>37</v>
+      </c>
+      <c r="H42">
+        <v>7</v>
+      </c>
+      <c r="I42" t="s">
+        <v>303</v>
+      </c>
       <c r="J42" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
@@ -3331,6 +3652,15 @@
       <c r="F43" t="s">
         <v>161</v>
       </c>
+      <c r="G43">
+        <v>34</v>
+      </c>
+      <c r="H43">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>303</v>
+      </c>
       <c r="J43" t="str">
         <f t="shared" si="2"/>
         <v>HOME</v>
@@ -3367,6 +3697,15 @@
       <c r="F44" t="s">
         <v>162</v>
       </c>
+      <c r="G44">
+        <v>29</v>
+      </c>
+      <c r="H44">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>303</v>
+      </c>
       <c r="J44" t="str">
         <f t="shared" si="2"/>
         <v>HOME</v>
@@ -3403,6 +3742,15 @@
       <c r="F45" t="s">
         <v>164</v>
       </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
+        <v>302</v>
+      </c>
       <c r="J45" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
@@ -3439,6 +3787,15 @@
       <c r="F46" t="s">
         <v>169</v>
       </c>
+      <c r="G46">
+        <v>30</v>
+      </c>
+      <c r="H46">
+        <v>27</v>
+      </c>
+      <c r="I46" t="s">
+        <v>303</v>
+      </c>
       <c r="J46" t="str">
         <f t="shared" si="2"/>
         <v>HOME</v>
@@ -3475,6 +3832,15 @@
       <c r="F47" t="s">
         <v>170</v>
       </c>
+      <c r="G47">
+        <v>23</v>
+      </c>
+      <c r="H47">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s">
+        <v>303</v>
+      </c>
       <c r="J47" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
@@ -3511,6 +3877,15 @@
       <c r="F48" t="s">
         <v>172</v>
       </c>
+      <c r="G48">
+        <v>17</v>
+      </c>
+      <c r="H48">
+        <v>22</v>
+      </c>
+      <c r="I48" t="s">
+        <v>302</v>
+      </c>
       <c r="J48" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
@@ -3547,6 +3922,15 @@
       <c r="F49" t="s">
         <v>175</v>
       </c>
+      <c r="G49">
+        <v>31</v>
+      </c>
+      <c r="H49">
+        <v>24</v>
+      </c>
+      <c r="I49" t="s">
+        <v>303</v>
+      </c>
       <c r="J49" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
@@ -3583,6 +3967,15 @@
       <c r="F50" t="s">
         <v>178</v>
       </c>
+      <c r="G50">
+        <v>16</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50" t="s">
+        <v>303</v>
+      </c>
       <c r="J50" t="str">
         <f t="shared" si="2"/>
         <v>HOME</v>
@@ -3619,6 +4012,15 @@
       <c r="F51" t="s">
         <v>182</v>
       </c>
+      <c r="G51">
+        <v>24</v>
+      </c>
+      <c r="H51">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>303</v>
+      </c>
       <c r="J51" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
@@ -3655,6 +4057,15 @@
       <c r="F52" t="s">
         <v>182</v>
       </c>
+      <c r="G52">
+        <v>24</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="I52" t="s">
+        <v>303</v>
+      </c>
       <c r="J52" t="str">
         <f t="shared" si="2"/>
         <v>HOME</v>
@@ -3691,6 +4102,15 @@
       <c r="F53" t="s">
         <v>185</v>
       </c>
+      <c r="G53">
+        <v>14</v>
+      </c>
+      <c r="H53">
+        <v>34</v>
+      </c>
+      <c r="I53" t="s">
+        <v>302</v>
+      </c>
       <c r="J53" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
@@ -3727,6 +4147,15 @@
       <c r="F54" t="s">
         <v>187</v>
       </c>
+      <c r="G54">
+        <v>20</v>
+      </c>
+      <c r="H54">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>303</v>
+      </c>
       <c r="J54" t="str">
         <f t="shared" si="2"/>
         <v>HOME</v>
@@ -3763,6 +4192,15 @@
       <c r="F55" t="s">
         <v>190</v>
       </c>
+      <c r="G55">
+        <v>24</v>
+      </c>
+      <c r="H55">
+        <v>16</v>
+      </c>
+      <c r="I55" t="s">
+        <v>303</v>
+      </c>
       <c r="J55" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
@@ -3793,6 +4231,15 @@
       <c r="F58" t="s">
         <v>193</v>
       </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>9</v>
+      </c>
+      <c r="I58" t="s">
+        <v>303</v>
+      </c>
       <c r="J58" t="str">
         <f t="shared" ref="J58:J73" si="3">IF(ISERROR(FIND("at",E58)=1),"HOME", "AWAY")</f>
         <v>AWAY</v>
@@ -3829,6 +4276,15 @@
       <c r="F59" t="s">
         <v>195</v>
       </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>15</v>
+      </c>
+      <c r="I59" t="s">
+        <v>302</v>
+      </c>
       <c r="J59" t="str">
         <f t="shared" si="3"/>
         <v>AWAY</v>
@@ -3865,6 +4321,15 @@
       <c r="F60" t="s">
         <v>196</v>
       </c>
+      <c r="G60">
+        <v>24</v>
+      </c>
+      <c r="H60">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s">
+        <v>303</v>
+      </c>
       <c r="J60" t="str">
         <f t="shared" si="3"/>
         <v>HOME</v>
@@ -3901,6 +4366,15 @@
       <c r="F61" t="s">
         <v>197</v>
       </c>
+      <c r="G61">
+        <v>17</v>
+      </c>
+      <c r="H61">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>303</v>
+      </c>
       <c r="J61" t="str">
         <f t="shared" si="3"/>
         <v>AWAY</v>
@@ -3937,6 +4411,15 @@
       <c r="F62" t="s">
         <v>198</v>
       </c>
+      <c r="G62">
+        <v>31</v>
+      </c>
+      <c r="H62">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s">
+        <v>303</v>
+      </c>
       <c r="J62" t="str">
         <f t="shared" si="3"/>
         <v>HOME</v>
@@ -3973,6 +4456,15 @@
       <c r="F63" t="s">
         <v>78</v>
       </c>
+      <c r="G63">
+        <v>20</v>
+      </c>
+      <c r="H63">
+        <v>23</v>
+      </c>
+      <c r="I63" t="s">
+        <v>302</v>
+      </c>
       <c r="J63" t="str">
         <f t="shared" si="3"/>
         <v>AWAY</v>
@@ -4009,6 +4501,15 @@
       <c r="F64" t="s">
         <v>202</v>
       </c>
+      <c r="G64">
+        <v>37</v>
+      </c>
+      <c r="H64">
+        <v>34</v>
+      </c>
+      <c r="I64" t="s">
+        <v>303</v>
+      </c>
       <c r="J64" t="str">
         <f t="shared" si="3"/>
         <v>HOME</v>
@@ -4045,6 +4546,15 @@
       <c r="F65" t="s">
         <v>204</v>
       </c>
+      <c r="G65">
+        <v>26</v>
+      </c>
+      <c r="H65">
+        <v>10</v>
+      </c>
+      <c r="I65" t="s">
+        <v>303</v>
+      </c>
       <c r="J65" t="str">
         <f t="shared" si="3"/>
         <v>HOME</v>
@@ -4081,6 +4591,15 @@
       <c r="F66" t="s">
         <v>206</v>
       </c>
+      <c r="G66">
+        <v>21</v>
+      </c>
+      <c r="H66">
+        <v>26</v>
+      </c>
+      <c r="I66" t="s">
+        <v>302</v>
+      </c>
       <c r="J66" t="str">
         <f t="shared" si="3"/>
         <v>AWAY</v>
@@ -4117,6 +4636,15 @@
       <c r="F67" t="s">
         <v>209</v>
       </c>
+      <c r="G67">
+        <v>37</v>
+      </c>
+      <c r="H67">
+        <v>13</v>
+      </c>
+      <c r="I67" t="s">
+        <v>303</v>
+      </c>
       <c r="J67" t="str">
         <f t="shared" si="3"/>
         <v>AWAY</v>
@@ -4153,6 +4681,15 @@
       <c r="F68" t="s">
         <v>213</v>
       </c>
+      <c r="G68">
+        <v>17</v>
+      </c>
+      <c r="H68">
+        <v>10</v>
+      </c>
+      <c r="I68" t="s">
+        <v>303</v>
+      </c>
       <c r="J68" t="str">
         <f t="shared" si="3"/>
         <v>HOME</v>
@@ -4189,6 +4726,15 @@
       <c r="F69" t="s">
         <v>214</v>
       </c>
+      <c r="G69">
+        <v>10</v>
+      </c>
+      <c r="H69">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>302</v>
+      </c>
       <c r="J69" t="str">
         <f t="shared" si="3"/>
         <v>HOME</v>
@@ -4225,6 +4771,15 @@
       <c r="F70" t="s">
         <v>216</v>
       </c>
+      <c r="G70">
+        <v>34</v>
+      </c>
+      <c r="H70">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s">
+        <v>303</v>
+      </c>
       <c r="J70" t="str">
         <f t="shared" si="3"/>
         <v>AWAY</v>
@@ -4261,6 +4816,15 @@
       <c r="F71" t="s">
         <v>218</v>
       </c>
+      <c r="G71">
+        <v>30</v>
+      </c>
+      <c r="H71">
+        <v>24</v>
+      </c>
+      <c r="I71" t="s">
+        <v>303</v>
+      </c>
       <c r="J71" t="str">
         <f t="shared" si="3"/>
         <v>HOME</v>
@@ -4297,6 +4861,15 @@
       <c r="F72" t="s">
         <v>219</v>
       </c>
+      <c r="G72">
+        <v>20</v>
+      </c>
+      <c r="H72">
+        <v>10</v>
+      </c>
+      <c r="I72" t="s">
+        <v>303</v>
+      </c>
       <c r="J72" t="str">
         <f t="shared" si="3"/>
         <v>AWAY</v>
@@ -4333,6 +4906,15 @@
       <c r="F73" t="s">
         <v>220</v>
       </c>
+      <c r="G73">
+        <v>13</v>
+      </c>
+      <c r="H73">
+        <v>7</v>
+      </c>
+      <c r="I73" t="s">
+        <v>303</v>
+      </c>
       <c r="J73" t="str">
         <f t="shared" si="3"/>
         <v>AWAY</v>
@@ -4927,9 +5509,39 @@
       </c>
     </row>
     <row r="92" spans="1:15">
+      <c r="A92">
+        <v>2008</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>253</v>
+      </c>
+      <c r="D92" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" t="s">
+        <v>74</v>
+      </c>
+      <c r="F92" t="s">
+        <v>213</v>
+      </c>
       <c r="J92" t="str">
-        <f t="shared" ref="J92:J108" si="5">IF(ISERROR(FIND("at",E92)=1),"HOME", "AWAY")</f>
-        <v>HOME</v>
+        <f t="shared" ref="J92:J107" si="5">IF(ISERROR(FIND("at",E92)=1),"HOME", "AWAY")</f>
+        <v>AWAY</v>
+      </c>
+      <c r="K92" t="s">
+        <v>106</v>
+      </c>
+      <c r="M92" t="s">
+        <v>254</v>
+      </c>
+      <c r="N92" t="s">
+        <v>49</v>
+      </c>
+      <c r="O92" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -4937,26 +5549,26 @@
         <v>2008</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D93" t="s">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="E93" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="J93" t="str">
         <f t="shared" si="5"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K93" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="M93" t="s">
         <v>254</v>
@@ -4973,32 +5585,32 @@
         <v>2008</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D94" t="s">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="E94" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="F94" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J94" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K94" t="s">
-        <v>224</v>
+        <v>52</v>
       </c>
       <c r="M94" t="s">
-        <v>254</v>
+        <v>69</v>
       </c>
       <c r="N94" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="O94" t="s">
         <v>43</v>
@@ -5009,32 +5621,32 @@
         <v>2008</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D95" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E95" t="s">
-        <v>84</v>
+        <v>260</v>
       </c>
       <c r="F95" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="J95" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K95" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M95" t="s">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="N95" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="O95" t="s">
         <v>43</v>
@@ -5045,29 +5657,29 @@
         <v>2008</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D96" t="s">
         <v>44</v>
       </c>
       <c r="E96" t="s">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="J96" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K96" t="s">
-        <v>55</v>
+        <v>265</v>
       </c>
       <c r="M96" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="N96" t="s">
         <v>49</v>
@@ -5081,29 +5693,29 @@
         <v>2008</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D97" t="s">
         <v>44</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="F97" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J97" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K97" t="s">
-        <v>265</v>
+        <v>63</v>
       </c>
       <c r="M97" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="N97" t="s">
         <v>49</v>
@@ -5117,29 +5729,29 @@
         <v>2008</v>
       </c>
       <c r="B98">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D98" t="s">
         <v>44</v>
       </c>
       <c r="E98" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="F98" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J98" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K98" t="s">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="M98" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="N98" t="s">
         <v>49</v>
@@ -5153,29 +5765,29 @@
         <v>2008</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D99" t="s">
         <v>44</v>
       </c>
       <c r="E99" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J99" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K99" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="M99" t="s">
-        <v>254</v>
+        <v>129</v>
       </c>
       <c r="N99" t="s">
         <v>49</v>
@@ -5189,29 +5801,29 @@
         <v>2008</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D100" t="s">
         <v>44</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F100" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J100" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K100" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="M100" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N100" t="s">
         <v>49</v>
@@ -5225,29 +5837,29 @@
         <v>2008</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D101" t="s">
         <v>44</v>
       </c>
       <c r="E101" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="F101" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J101" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K101" t="s">
-        <v>173</v>
+        <v>279</v>
       </c>
       <c r="M101" t="s">
-        <v>126</v>
+        <v>277</v>
       </c>
       <c r="N101" t="s">
         <v>49</v>
@@ -5261,32 +5873,32 @@
         <v>2008</v>
       </c>
       <c r="B102">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D102" t="s">
         <v>44</v>
       </c>
       <c r="E102" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="F102" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="J102" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K102" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M102" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="N102" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="O102" t="s">
         <v>43</v>
@@ -5297,32 +5909,32 @@
         <v>2008</v>
       </c>
       <c r="B103">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D103" t="s">
         <v>44</v>
       </c>
       <c r="E103" t="s">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="F103" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="J103" t="str">
         <f t="shared" si="5"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K103" t="s">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="M103" t="s">
-        <v>254</v>
+        <v>103</v>
       </c>
       <c r="N103" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="O103" t="s">
         <v>43</v>
@@ -5333,32 +5945,32 @@
         <v>2008</v>
       </c>
       <c r="B104">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D104" t="s">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="E104" t="s">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="F104" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="J104" t="str">
         <f t="shared" si="5"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K104" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="M104" t="s">
-        <v>103</v>
+        <v>254</v>
       </c>
       <c r="N104" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="O104" t="s">
         <v>43</v>
@@ -5369,32 +5981,32 @@
         <v>2008</v>
       </c>
       <c r="B105">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D105" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="E105" t="s">
-        <v>285</v>
+        <v>84</v>
       </c>
       <c r="F105" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="J105" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K105" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M105" t="s">
         <v>254</v>
       </c>
       <c r="N105" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="O105" t="s">
         <v>43</v>
@@ -5405,32 +6017,32 @@
         <v>2008</v>
       </c>
       <c r="B106">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D106" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="E106" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="F106" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="J106" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K106" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M106" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="N106" t="s">
-        <v>49</v>
+        <v>291</v>
       </c>
       <c r="O106" t="s">
         <v>43</v>
@@ -5441,70 +6053,34 @@
         <v>2008</v>
       </c>
       <c r="B107">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D107" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="E107" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c r="F107" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J107" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K107" t="s">
-        <v>150</v>
+        <v>298</v>
       </c>
       <c r="M107" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="N107" t="s">
-        <v>291</v>
+        <v>49</v>
       </c>
       <c r="O107" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108">
-        <v>2008</v>
-      </c>
-      <c r="B108">
-        <v>17</v>
-      </c>
-      <c r="C108" t="s">
-        <v>296</v>
-      </c>
-      <c r="D108" t="s">
-        <v>256</v>
-      </c>
-      <c r="E108" t="s">
-        <v>295</v>
-      </c>
-      <c r="F108" t="s">
-        <v>297</v>
-      </c>
-      <c r="J108" t="str">
-        <f t="shared" si="5"/>
-        <v>HOME</v>
-      </c>
-      <c r="K108" t="s">
-        <v>298</v>
-      </c>
-      <c r="M108" t="s">
-        <v>254</v>
-      </c>
-      <c r="N108" t="s">
-        <v>49</v>
-      </c>
-      <c r="O108" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Ravens-since-2008.xlsx
+++ b/Ravens-since-2008.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="304">
   <si>
     <t>Flacco Career Ratings</t>
   </si>
@@ -1996,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4951,6 +4951,15 @@
       <c r="F75" t="s">
         <v>222</v>
       </c>
+      <c r="G75">
+        <v>38</v>
+      </c>
+      <c r="H75">
+        <v>24</v>
+      </c>
+      <c r="I75" t="s">
+        <v>303</v>
+      </c>
       <c r="J75" t="str">
         <f t="shared" ref="J75:J90" si="4">IF(ISERROR(FIND("at",E75)=1),"HOME", "AWAY")</f>
         <v>HOME</v>
@@ -4987,6 +4996,15 @@
       <c r="F76" t="s">
         <v>223</v>
       </c>
+      <c r="G76">
+        <v>31</v>
+      </c>
+      <c r="H76">
+        <v>26</v>
+      </c>
+      <c r="I76" t="s">
+        <v>303</v>
+      </c>
       <c r="J76" t="str">
         <f t="shared" si="4"/>
         <v>AWAY</v>
@@ -5023,6 +5041,15 @@
       <c r="F77" t="s">
         <v>225</v>
       </c>
+      <c r="G77">
+        <v>34</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77" t="s">
+        <v>303</v>
+      </c>
       <c r="J77" t="str">
         <f t="shared" si="4"/>
         <v>HOME</v>
@@ -5059,6 +5086,15 @@
       <c r="F78" t="s">
         <v>227</v>
       </c>
+      <c r="G78">
+        <v>21</v>
+      </c>
+      <c r="H78">
+        <v>27</v>
+      </c>
+      <c r="I78" t="s">
+        <v>302</v>
+      </c>
       <c r="J78" t="str">
         <f t="shared" si="4"/>
         <v>AWAY</v>
@@ -5095,6 +5131,15 @@
       <c r="F79" t="s">
         <v>228</v>
       </c>
+      <c r="G79">
+        <v>14</v>
+      </c>
+      <c r="H79">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s">
+        <v>302</v>
+      </c>
       <c r="J79" t="str">
         <f t="shared" si="4"/>
         <v>AWAY</v>
@@ -5131,6 +5176,15 @@
       <c r="F80" t="s">
         <v>230</v>
       </c>
+      <c r="G80">
+        <v>31</v>
+      </c>
+      <c r="H80">
+        <v>33</v>
+      </c>
+      <c r="I80" t="s">
+        <v>302</v>
+      </c>
       <c r="J80" t="str">
         <f t="shared" si="4"/>
         <v>AWAY</v>
@@ -5167,6 +5221,15 @@
       <c r="F81" t="s">
         <v>232</v>
       </c>
+      <c r="G81">
+        <v>30</v>
+      </c>
+      <c r="H81">
+        <v>7</v>
+      </c>
+      <c r="I81" t="s">
+        <v>303</v>
+      </c>
       <c r="J81" t="str">
         <f t="shared" si="4"/>
         <v>HOME</v>
@@ -5203,6 +5266,15 @@
       <c r="F82" t="s">
         <v>234</v>
       </c>
+      <c r="G82">
+        <v>7</v>
+      </c>
+      <c r="H82">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s">
+        <v>302</v>
+      </c>
       <c r="J82" t="str">
         <f t="shared" si="4"/>
         <v>AWAY</v>
@@ -5239,6 +5311,15 @@
       <c r="F83" t="s">
         <v>236</v>
       </c>
+      <c r="G83">
+        <v>16</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>303</v>
+      </c>
       <c r="J83" t="str">
         <f t="shared" si="4"/>
         <v>AWAY</v>
@@ -5275,6 +5356,15 @@
       <c r="F84" t="s">
         <v>238</v>
       </c>
+      <c r="G84">
+        <v>15</v>
+      </c>
+      <c r="H84">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s">
+        <v>302</v>
+      </c>
       <c r="J84" t="str">
         <f t="shared" si="4"/>
         <v>HOME</v>
@@ -5311,6 +5401,15 @@
       <c r="F85" t="s">
         <v>75</v>
       </c>
+      <c r="G85">
+        <v>20</v>
+      </c>
+      <c r="H85">
+        <v>17</v>
+      </c>
+      <c r="I85" t="s">
+        <v>303</v>
+      </c>
       <c r="J85" t="str">
         <f t="shared" si="4"/>
         <v>HOME</v>
@@ -5347,6 +5446,15 @@
       <c r="F86" t="s">
         <v>242</v>
       </c>
+      <c r="G86">
+        <v>14</v>
+      </c>
+      <c r="H86">
+        <v>27</v>
+      </c>
+      <c r="I86" t="s">
+        <v>302</v>
+      </c>
       <c r="J86" t="str">
         <f t="shared" si="4"/>
         <v>AWAY</v>
@@ -5383,6 +5491,15 @@
       <c r="F87" t="s">
         <v>245</v>
       </c>
+      <c r="G87">
+        <v>48</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87" t="s">
+        <v>303</v>
+      </c>
       <c r="J87" t="str">
         <f t="shared" si="4"/>
         <v>HOME</v>
@@ -5419,6 +5536,15 @@
       <c r="F88" t="s">
         <v>247</v>
       </c>
+      <c r="G88">
+        <v>31</v>
+      </c>
+      <c r="H88">
+        <v>7</v>
+      </c>
+      <c r="I88" t="s">
+        <v>303</v>
+      </c>
       <c r="J88" t="str">
         <f t="shared" si="4"/>
         <v>HOME</v>
@@ -5455,6 +5581,15 @@
       <c r="F89" t="s">
         <v>248</v>
       </c>
+      <c r="G89">
+        <v>20</v>
+      </c>
+      <c r="H89">
+        <v>23</v>
+      </c>
+      <c r="I89" t="s">
+        <v>302</v>
+      </c>
       <c r="J89" t="str">
         <f t="shared" si="4"/>
         <v>AWAY</v>
@@ -5491,6 +5626,15 @@
       <c r="F90" t="s">
         <v>250</v>
       </c>
+      <c r="G90">
+        <v>21</v>
+      </c>
+      <c r="H90">
+        <v>13</v>
+      </c>
+      <c r="I90" t="s">
+        <v>303</v>
+      </c>
       <c r="J90" t="str">
         <f t="shared" si="4"/>
         <v>AWAY</v>
@@ -5527,6 +5671,15 @@
       <c r="F92" t="s">
         <v>213</v>
       </c>
+      <c r="G92">
+        <v>17</v>
+      </c>
+      <c r="H92">
+        <v>10</v>
+      </c>
+      <c r="I92" t="s">
+        <v>303</v>
+      </c>
       <c r="J92" t="str">
         <f t="shared" ref="J92:J107" si="5">IF(ISERROR(FIND("at",E92)=1),"HOME", "AWAY")</f>
         <v>AWAY</v>
@@ -5563,6 +5716,15 @@
       <c r="F93" t="s">
         <v>257</v>
       </c>
+      <c r="G93">
+        <v>28</v>
+      </c>
+      <c r="H93">
+        <v>10</v>
+      </c>
+      <c r="I93" t="s">
+        <v>303</v>
+      </c>
       <c r="J93" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
@@ -5599,6 +5761,15 @@
       <c r="F94" t="s">
         <v>259</v>
       </c>
+      <c r="G94">
+        <v>20</v>
+      </c>
+      <c r="H94">
+        <v>23</v>
+      </c>
+      <c r="I94" t="s">
+        <v>302</v>
+      </c>
       <c r="J94" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
@@ -5635,6 +5806,15 @@
       <c r="F95" t="s">
         <v>214</v>
       </c>
+      <c r="G95">
+        <v>10</v>
+      </c>
+      <c r="H95">
+        <v>13</v>
+      </c>
+      <c r="I95" t="s">
+        <v>302</v>
+      </c>
       <c r="J95" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
@@ -5671,6 +5851,15 @@
       <c r="F96" t="s">
         <v>264</v>
       </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>31</v>
+      </c>
+      <c r="I96" t="s">
+        <v>302</v>
+      </c>
       <c r="J96" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
@@ -5707,6 +5896,15 @@
       <c r="F97" t="s">
         <v>268</v>
       </c>
+      <c r="G97">
+        <v>27</v>
+      </c>
+      <c r="H97">
+        <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>303</v>
+      </c>
       <c r="J97" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
@@ -5743,6 +5941,15 @@
       <c r="F98" t="s">
         <v>270</v>
       </c>
+      <c r="G98">
+        <v>29</v>
+      </c>
+      <c r="H98">
+        <v>10</v>
+      </c>
+      <c r="I98" t="s">
+        <v>303</v>
+      </c>
       <c r="J98" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
@@ -5779,6 +5986,15 @@
       <c r="F99" t="s">
         <v>272</v>
       </c>
+      <c r="G99">
+        <v>37</v>
+      </c>
+      <c r="H99">
+        <v>27</v>
+      </c>
+      <c r="I99" t="s">
+        <v>303</v>
+      </c>
       <c r="J99" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
@@ -5815,6 +6031,15 @@
       <c r="F100" t="s">
         <v>275</v>
       </c>
+      <c r="G100">
+        <v>41</v>
+      </c>
+      <c r="H100">
+        <v>13</v>
+      </c>
+      <c r="I100" t="s">
+        <v>303</v>
+      </c>
       <c r="J100" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
@@ -5851,6 +6076,15 @@
       <c r="F101" t="s">
         <v>278</v>
       </c>
+      <c r="G101">
+        <v>10</v>
+      </c>
+      <c r="H101">
+        <v>30</v>
+      </c>
+      <c r="I101" t="s">
+        <v>302</v>
+      </c>
       <c r="J101" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
@@ -5887,6 +6121,15 @@
       <c r="F102" t="s">
         <v>282</v>
       </c>
+      <c r="G102">
+        <v>36</v>
+      </c>
+      <c r="H102">
+        <v>7</v>
+      </c>
+      <c r="I102" t="s">
+        <v>303</v>
+      </c>
       <c r="J102" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
@@ -5923,6 +6166,15 @@
       <c r="F103" t="s">
         <v>225</v>
       </c>
+      <c r="G103">
+        <v>34</v>
+      </c>
+      <c r="H103">
+        <v>3</v>
+      </c>
+      <c r="I103" t="s">
+        <v>303</v>
+      </c>
       <c r="J103" t="str">
         <f t="shared" si="5"/>
         <v>AWAY</v>
@@ -5959,6 +6211,15 @@
       <c r="F104" t="s">
         <v>182</v>
       </c>
+      <c r="G104">
+        <v>24</v>
+      </c>
+      <c r="H104">
+        <v>10</v>
+      </c>
+      <c r="I104" t="s">
+        <v>303</v>
+      </c>
       <c r="J104" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
@@ -5995,6 +6256,15 @@
       <c r="F105" t="s">
         <v>289</v>
       </c>
+      <c r="G105">
+        <v>9</v>
+      </c>
+      <c r="H105">
+        <v>13</v>
+      </c>
+      <c r="I105" t="s">
+        <v>302</v>
+      </c>
       <c r="J105" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
@@ -6031,6 +6301,15 @@
       <c r="F106" t="s">
         <v>294</v>
       </c>
+      <c r="G106">
+        <v>33</v>
+      </c>
+      <c r="H106">
+        <v>24</v>
+      </c>
+      <c r="I106" t="s">
+        <v>303</v>
+      </c>
       <c r="J106" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
@@ -6066,6 +6345,15 @@
       </c>
       <c r="F107" t="s">
         <v>297</v>
+      </c>
+      <c r="G107">
+        <v>27</v>
+      </c>
+      <c r="H107">
+        <v>7</v>
+      </c>
+      <c r="I107" t="s">
+        <v>303</v>
       </c>
       <c r="J107" t="str">
         <f t="shared" si="5"/>

--- a/Ravens-since-2008.xlsx
+++ b/Ravens-since-2008.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="257">
   <si>
     <t>Flacco Career Ratings</t>
   </si>
@@ -115,24 +115,6 @@
     <t>Results</t>
   </si>
   <si>
-    <t>Game site</t>
-  </si>
-  <si>
-    <t>TV</t>
-  </si>
-  <si>
-    <t>NFL.com</t>
-  </si>
-  <si>
-    <t>recap</t>
-  </si>
-  <si>
-    <t>Final score</t>
-  </si>
-  <si>
-    <t>Team record</t>
-  </si>
-  <si>
     <t>8:30 p.m.</t>
   </si>
   <si>
@@ -145,15 +127,6 @@
     <t>0–1</t>
   </si>
   <si>
-    <t>Sports Authority Field at Mile High[a]</t>
-  </si>
-  <si>
-    <t>NBC</t>
-  </si>
-  <si>
-    <t>Recap</t>
-  </si>
-  <si>
     <t>1:00 p.m.</t>
   </si>
   <si>
@@ -166,12 +139,6 @@
     <t>1–1</t>
   </si>
   <si>
-    <t>M&amp;T Bank Stadium</t>
-  </si>
-  <si>
-    <t>CBS</t>
-  </si>
-  <si>
     <t>Houston Texans</t>
   </si>
   <si>
@@ -190,9 +157,6 @@
     <t>2–2</t>
   </si>
   <si>
-    <t>Ralph Wilson Stadium</t>
-  </si>
-  <si>
     <t>at Miami Dolphins</t>
   </si>
   <si>
@@ -202,9 +166,6 @@
     <t>3–2</t>
   </si>
   <si>
-    <t>Sun Life Stadium</t>
-  </si>
-  <si>
     <t>Green Bay Packers</t>
   </si>
   <si>
@@ -214,9 +175,6 @@
     <t>3–3</t>
   </si>
   <si>
-    <t>Fox</t>
-  </si>
-  <si>
     <t>4:25 p.m.</t>
   </si>
   <si>
@@ -229,9 +187,6 @@
     <t>3–4</t>
   </si>
   <si>
-    <t>Heinz Field</t>
-  </si>
-  <si>
     <t>at Cleveland Browns</t>
   </si>
   <si>
@@ -241,9 +196,6 @@
     <t>3–5</t>
   </si>
   <si>
-    <t>FirstEnergy Stadium</t>
-  </si>
-  <si>
     <t>Cincinnati Bengals</t>
   </si>
   <si>
@@ -262,9 +214,6 @@
     <t>4–6</t>
   </si>
   <si>
-    <t>Soldier Field</t>
-  </si>
-  <si>
     <t>New York Jets</t>
   </si>
   <si>
@@ -304,12 +253,6 @@
     <t>8–6</t>
   </si>
   <si>
-    <t>Ford Field</t>
-  </si>
-  <si>
-    <t>ESPN[b]</t>
-  </si>
-  <si>
     <t>New England Patriots</t>
   </si>
   <si>
@@ -319,9 +262,6 @@
     <t>8–7</t>
   </si>
   <si>
-    <t>CBS[2]</t>
-  </si>
-  <si>
     <t>at Cincinnati Bengals</t>
   </si>
   <si>
@@ -331,9 +271,6 @@
     <t>8–8</t>
   </si>
   <si>
-    <t>Paul Brown Stadium</t>
-  </si>
-  <si>
     <t>7:00 p.m.</t>
   </si>
   <si>
@@ -343,18 +280,12 @@
     <t>1–0</t>
   </si>
   <si>
-    <t>ESPN[a]</t>
-  </si>
-  <si>
     <t>at Philadelphia Eagles</t>
   </si>
   <si>
     <t>L 23–24</t>
   </si>
   <si>
-    <t>Lincoln Financial Field</t>
-  </si>
-  <si>
     <t>8:20 p.m.</t>
   </si>
   <si>
@@ -367,9 +298,6 @@
     <t>3–1</t>
   </si>
   <si>
-    <t>NFLN[b]</t>
-  </si>
-  <si>
     <t>at Kansas City Chiefs</t>
   </si>
   <si>
@@ -379,9 +307,6 @@
     <t>4–1</t>
   </si>
   <si>
-    <t>Arrowhead Stadium</t>
-  </si>
-  <si>
     <t>Dallas Cowboys</t>
   </si>
   <si>
@@ -400,18 +325,12 @@
     <t>5–2</t>
   </si>
   <si>
-    <t>Reliant Stadium</t>
-  </si>
-  <si>
     <t>W 25–15</t>
   </si>
   <si>
     <t>6–2</t>
   </si>
   <si>
-    <t>Cleveland Browns Stadium</t>
-  </si>
-  <si>
     <t>Oakland Raiders</t>
   </si>
   <si>
@@ -439,9 +358,6 @@
     <t>9–2</t>
   </si>
   <si>
-    <t>Qualcomm Stadium</t>
-  </si>
-  <si>
     <t>9–3</t>
   </si>
   <si>
@@ -454,9 +370,6 @@
     <t>9–4</t>
   </si>
   <si>
-    <t>FedExField</t>
-  </si>
-  <si>
     <t>Denver Broncos</t>
   </si>
   <si>
@@ -493,18 +406,12 @@
     <t>L 13–26</t>
   </si>
   <si>
-    <t>LP Field</t>
-  </si>
-  <si>
     <t>at St. Louis Rams</t>
   </si>
   <si>
     <t>W 37–7</t>
   </si>
   <si>
-    <t>Edward Jones Dome</t>
-  </si>
-  <si>
     <t>W 34–17</t>
   </si>
   <si>
@@ -520,12 +427,6 @@
     <t>4–2</t>
   </si>
   <si>
-    <t>EverBank Field</t>
-  </si>
-  <si>
-    <t>ESPN</t>
-  </si>
-  <si>
     <t>Arizona Cardinals</t>
   </si>
   <si>
@@ -544,9 +445,6 @@
     <t>6–3</t>
   </si>
   <si>
-    <t>CenturyLink Field</t>
-  </si>
-  <si>
     <t>W 31–24</t>
   </si>
   <si>
@@ -562,9 +460,6 @@
     <t>8–3</t>
   </si>
   <si>
-    <t>NFLN</t>
-  </si>
-  <si>
     <t>4:05 p.m.[1]</t>
   </si>
   <si>
@@ -604,9 +499,6 @@
     <t>W 10–9</t>
   </si>
   <si>
-    <t>New Meadowlands Stadium</t>
-  </si>
-  <si>
     <t>L 10–15</t>
   </si>
   <si>
@@ -622,9 +514,6 @@
     <t>at New England Patriots</t>
   </si>
   <si>
-    <t>Gillette Stadium</t>
-  </si>
-  <si>
     <t>Buffalo Bills</t>
   </si>
   <si>
@@ -643,18 +532,12 @@
     <t>L 21–26</t>
   </si>
   <si>
-    <t>Georgia Dome</t>
-  </si>
-  <si>
     <t>at Carolina Panthers</t>
   </si>
   <si>
     <t>W 37–13</t>
   </si>
   <si>
-    <t>Bank of America Stadium</t>
-  </si>
-  <si>
     <t>4:15 p.m.[10]</t>
   </si>
   <si>
@@ -715,9 +598,6 @@
     <t>L 33–31</t>
   </si>
   <si>
-    <t>Mall of America Field</t>
-  </si>
-  <si>
     <t>W 30–7</t>
   </si>
   <si>
@@ -751,9 +631,6 @@
     <t>L 27–14</t>
   </si>
   <si>
-    <t>Lambeau Field</t>
-  </si>
-  <si>
     <t>Detroit Lions</t>
   </si>
   <si>
@@ -778,15 +655,9 @@
     <t>9–7</t>
   </si>
   <si>
-    <t>Oakland-Alameda County Coliseum</t>
-  </si>
-  <si>
     <t>Sunday, September 7, 2008</t>
   </si>
   <si>
-    <t>M &amp; T Bank Stadium</t>
-  </si>
-  <si>
     <t>Sunday, September 21, 2008</t>
   </si>
   <si>
@@ -811,9 +682,6 @@
     <t>Sunday, October 12, 2008</t>
   </si>
   <si>
-    <t>Lucas Oil Stadium</t>
-  </si>
-  <si>
     <t>L 3–31</t>
   </si>
   <si>
@@ -823,9 +691,6 @@
     <t>Sunday, October 19, 2008</t>
   </si>
   <si>
-    <t>Dolphin Stadium</t>
-  </si>
-  <si>
     <t>W 27–13</t>
   </si>
   <si>
@@ -853,9 +718,6 @@
     <t>Sunday, November 16, 2008*</t>
   </si>
   <si>
-    <t>Giants Stadium</t>
-  </si>
-  <si>
     <t>L 10–30</t>
   </si>
   <si>
@@ -895,15 +757,9 @@
     <t>Saturday, December 20, 2008</t>
   </si>
   <si>
-    <t>NFL Network</t>
-  </si>
-  <si>
     <t>8:00 p.m.</t>
   </si>
   <si>
-    <t>Texas Stadium</t>
-  </si>
-  <si>
     <t>W 33–24</t>
   </si>
   <si>
@@ -932,6 +788,9 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>Record</t>
   </si>
 </sst>
 </file>
@@ -980,8 +839,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1054,7 +915,7 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1087,6 +948,7 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1119,6 +981,7 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1994,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O107"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2007,7 +1870,10 @@
     <col min="10" max="10" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" t="s">
         <v>27</v>
       </c>
@@ -2024,4352 +1890,3475 @@
         <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="H1" t="s">
         <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="J1" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="K1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>2013</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>41887</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="N1" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="B2" t="s">
+      <c r="G2">
+        <v>27</v>
+      </c>
+      <c r="H2">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(ISERROR(FIND("at",E2)=1),"HOME", "AWAY")</f>
+        <v>AWAY</v>
+      </c>
+      <c r="K2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="B3" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2013</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>41897</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J17" si="0">IF(ISERROR(FIND("at",E3)=1),"HOME", "AWAY")</f>
+        <v>HOME</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2013</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>41887</v>
+        <v>41904</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J4" t="str">
-        <f>IF(ISERROR(FIND("at",E4)=1),"HOME", "AWAY")</f>
-        <v>AWAY</v>
+        <f t="shared" si="0"/>
+        <v>HOME</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" t="s">
         <v>41</v>
       </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>41897</v>
+        <v>41911</v>
       </c>
       <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>254</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>AWAY</v>
+      </c>
+      <c r="K5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>302</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J19" si="0">IF(ISERROR(FIND("at",E5)=1),"HOME", "AWAY")</f>
-        <v>HOME</v>
-      </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>2013</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>41904</v>
+        <v>41918</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>2013</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>41911</v>
+        <v>41925</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H7">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M7" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>2013</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>41918</v>
+        <v>41932</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G8">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>2013</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>41925</v>
+        <v>41946</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>2013</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>41932</v>
+        <v>41953</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>2013</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>41946</v>
+        <v>41960</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" t="s">
-        <v>73</v>
-      </c>
-      <c r="N11" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>2013</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>41953</v>
+        <v>41967</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>2013</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>41960</v>
+        <v>41971</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G13">
+        <v>22</v>
+      </c>
+      <c r="H13">
         <v>20</v>
       </c>
-      <c r="H13">
-        <v>23</v>
-      </c>
       <c r="I13" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" t="s">
-        <v>49</v>
-      </c>
-      <c r="O13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>2013</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>41967</v>
+        <v>41981</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G14">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
         <v>HOME</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>2013</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>41971</v>
+        <v>41989</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G15">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K15" t="s">
-        <v>86</v>
-      </c>
-      <c r="M15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N15" t="s">
-        <v>42</v>
-      </c>
-      <c r="O15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>41981</v>
+        <v>41995</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G16">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="H16">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
-      </c>
-      <c r="M16" t="s">
-        <v>48</v>
-      </c>
-      <c r="N16" t="s">
-        <v>64</v>
-      </c>
-      <c r="O16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>2013</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>41989</v>
+        <v>42002</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
       </c>
       <c r="K17" t="s">
-        <v>93</v>
-      </c>
-      <c r="M17" t="s">
-        <v>94</v>
-      </c>
-      <c r="N17" t="s">
-        <v>95</v>
-      </c>
-      <c r="O17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18">
-        <v>2013</v>
-      </c>
-      <c r="B18">
-        <v>16</v>
-      </c>
-      <c r="C18" s="2">
-        <v>41995</v>
-      </c>
-      <c r="D18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18">
-        <v>7</v>
-      </c>
-      <c r="H18">
-        <v>41</v>
-      </c>
-      <c r="I18" t="s">
-        <v>302</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>2012</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>41892</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20">
+        <v>44</v>
+      </c>
+      <c r="H20">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>255</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" ref="J20:J35" si="1">IF(ISERROR(FIND("at",E20)=1),"HOME", "AWAY")</f>
         <v>AWAY</v>
       </c>
-      <c r="K18" t="s">
-        <v>98</v>
-      </c>
-      <c r="M18" t="s">
-        <v>48</v>
-      </c>
-      <c r="N18" t="s">
-        <v>99</v>
-      </c>
-      <c r="O18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19">
-        <v>2013</v>
-      </c>
-      <c r="B19">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2">
-        <v>42002</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19">
-        <v>17</v>
-      </c>
-      <c r="H19">
-        <v>34</v>
-      </c>
-      <c r="I19" t="s">
-        <v>302</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
+      <c r="K20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>2012</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>41898</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>254</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
         <v>AWAY</v>
       </c>
-      <c r="K19" t="s">
-        <v>102</v>
-      </c>
-      <c r="M19" t="s">
-        <v>103</v>
-      </c>
-      <c r="N19" t="s">
-        <v>49</v>
-      </c>
-      <c r="O19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>2012</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2">
-        <v>41892</v>
+        <v>41905</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="G22">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I22" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" ref="J22:J37" si="1">IF(ISERROR(FIND("at",E22)=1),"HOME", "AWAY")</f>
+        <f t="shared" si="1"/>
         <v>AWAY</v>
       </c>
       <c r="K22" t="s">
-        <v>106</v>
-      </c>
-      <c r="M22" t="s">
-        <v>48</v>
-      </c>
-      <c r="N22" t="s">
-        <v>107</v>
-      </c>
-      <c r="O22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>2012</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
-        <v>41898</v>
+        <v>41909</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="G23">
         <v>23</v>
       </c>
       <c r="H23">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="1"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K23" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" t="s">
-        <v>110</v>
-      </c>
-      <c r="N23" t="s">
-        <v>49</v>
-      </c>
-      <c r="O23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>2012</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2">
-        <v>41905</v>
+        <v>41919</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="G24">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="1"/>
         <v>AWAY</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
-      </c>
-      <c r="M24" t="s">
-        <v>48</v>
-      </c>
-      <c r="N24" t="s">
-        <v>42</v>
-      </c>
-      <c r="O24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>2012</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2">
-        <v>41909</v>
+        <v>41926</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="G25">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="1"/>
         <v>HOME</v>
       </c>
       <c r="K25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M25" t="s">
-        <v>48</v>
-      </c>
-      <c r="N25" t="s">
-        <v>115</v>
-      </c>
-      <c r="O25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>2012</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2">
-        <v>41919</v>
+        <v>41933</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="1"/>
         <v>AWAY</v>
       </c>
       <c r="K26" t="s">
-        <v>118</v>
-      </c>
-      <c r="M26" t="s">
-        <v>119</v>
-      </c>
-      <c r="N26" t="s">
-        <v>49</v>
-      </c>
-      <c r="O26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>2012</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2">
-        <v>41926</v>
+        <v>41947</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="G27">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H27">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="1"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K27" t="s">
-        <v>122</v>
-      </c>
-      <c r="M27" t="s">
-        <v>48</v>
-      </c>
-      <c r="N27" t="s">
-        <v>64</v>
-      </c>
-      <c r="O27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>2012</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2">
-        <v>41933</v>
+        <v>41954</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F28" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="G28">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H28">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="1"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K28" t="s">
-        <v>125</v>
-      </c>
-      <c r="M28" t="s">
-        <v>126</v>
-      </c>
-      <c r="N28" t="s">
-        <v>49</v>
-      </c>
-      <c r="O28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>2012</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2">
-        <v>41947</v>
+        <v>41961</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G29">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H29">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="1"/>
         <v>AWAY</v>
       </c>
       <c r="K29" t="s">
-        <v>128</v>
-      </c>
-      <c r="M29" t="s">
-        <v>129</v>
-      </c>
-      <c r="N29" t="s">
-        <v>49</v>
-      </c>
-      <c r="O29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>2012</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2">
-        <v>41954</v>
+        <v>41968</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="G30">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="1"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K30" t="s">
-        <v>132</v>
-      </c>
-      <c r="M30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N30" t="s">
-        <v>49</v>
-      </c>
-      <c r="O30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>2012</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C31" s="2">
-        <v>41961</v>
+        <v>41975</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="G31">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="1"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K31" t="s">
-        <v>134</v>
-      </c>
-      <c r="M31" t="s">
-        <v>69</v>
-      </c>
-      <c r="N31" t="s">
-        <v>42</v>
-      </c>
-      <c r="O31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>2012</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C32" s="2">
-        <v>41968</v>
+        <v>41982</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="G32">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H32">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="1"/>
         <v>AWAY</v>
       </c>
       <c r="K32" t="s">
-        <v>138</v>
-      </c>
-      <c r="M32" t="s">
-        <v>139</v>
-      </c>
-      <c r="N32" t="s">
-        <v>49</v>
-      </c>
-      <c r="O32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>2012</v>
       </c>
       <c r="B33">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" s="2">
-        <v>41975</v>
+        <v>41989</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="G33">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H33">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I33" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="1"/>
         <v>HOME</v>
       </c>
       <c r="K33" t="s">
-        <v>140</v>
-      </c>
-      <c r="M33" t="s">
-        <v>48</v>
-      </c>
-      <c r="N33" t="s">
-        <v>49</v>
-      </c>
-      <c r="O33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>2012</v>
       </c>
       <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="C34" s="2">
+        <v>41996</v>
+      </c>
+      <c r="D34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34">
+        <v>33</v>
+      </c>
+      <c r="H34">
         <v>14</v>
       </c>
-      <c r="C34" s="2">
-        <v>41982</v>
-      </c>
-      <c r="D34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" t="s">
-        <v>141</v>
-      </c>
-      <c r="F34" t="s">
-        <v>142</v>
-      </c>
-      <c r="G34">
-        <v>28</v>
-      </c>
-      <c r="H34">
-        <v>31</v>
-      </c>
       <c r="I34" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="1"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K34" t="s">
-        <v>143</v>
-      </c>
-      <c r="M34" t="s">
-        <v>144</v>
-      </c>
-      <c r="N34" t="s">
-        <v>49</v>
-      </c>
-      <c r="O34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>2012</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C35" s="2">
-        <v>41989</v>
+        <v>42003</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="G35">
         <v>17</v>
       </c>
       <c r="H35">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I35" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="1"/>
+        <v>AWAY</v>
+      </c>
+      <c r="K35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>2011</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>41893</v>
+      </c>
+      <c r="D38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38">
+        <v>35</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+      <c r="I38" t="s">
+        <v>255</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" ref="J38:J53" si="2">IF(ISERROR(FIND("at",E38)=1),"HOME", "AWAY")</f>
         <v>HOME</v>
       </c>
-      <c r="K35" t="s">
-        <v>146</v>
-      </c>
-      <c r="M35" t="s">
-        <v>48</v>
-      </c>
-      <c r="N35" t="s">
-        <v>49</v>
-      </c>
-      <c r="O35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36">
-        <v>2012</v>
-      </c>
-      <c r="B36">
-        <v>16</v>
-      </c>
-      <c r="C36" s="2">
-        <v>41996</v>
-      </c>
-      <c r="D36" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" t="s">
-        <v>148</v>
-      </c>
-      <c r="F36" t="s">
-        <v>149</v>
-      </c>
-      <c r="G36">
-        <v>33</v>
-      </c>
-      <c r="H36">
-        <v>14</v>
-      </c>
-      <c r="I36" t="s">
-        <v>303</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="1"/>
-        <v>HOME</v>
-      </c>
-      <c r="K36" t="s">
-        <v>150</v>
-      </c>
-      <c r="M36" t="s">
-        <v>48</v>
-      </c>
-      <c r="N36" t="s">
-        <v>64</v>
-      </c>
-      <c r="O36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37">
-        <v>2012</v>
-      </c>
-      <c r="B37">
-        <v>17</v>
-      </c>
-      <c r="C37" s="2">
-        <v>42003</v>
-      </c>
-      <c r="D37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" t="s">
-        <v>151</v>
-      </c>
-      <c r="G37">
-        <v>17</v>
-      </c>
-      <c r="H37">
-        <v>23</v>
-      </c>
-      <c r="I37" t="s">
-        <v>302</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="1"/>
+      <c r="K38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>2011</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2">
+        <v>41900</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39">
+        <v>13</v>
+      </c>
+      <c r="H39">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s">
+        <v>254</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="2"/>
         <v>AWAY</v>
       </c>
-      <c r="K37" t="s">
-        <v>152</v>
-      </c>
-      <c r="M37" t="s">
-        <v>103</v>
-      </c>
-      <c r="N37" t="s">
-        <v>49</v>
-      </c>
-      <c r="O37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="K39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>2011</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" s="2">
-        <v>41893</v>
+        <v>41907</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="F40" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="G40">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>7</v>
       </c>
       <c r="I40" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" ref="J40:J55" si="2">IF(ISERROR(FIND("at",E40)=1),"HOME", "AWAY")</f>
-        <v>HOME</v>
+        <f t="shared" si="2"/>
+        <v>AWAY</v>
       </c>
       <c r="K40" t="s">
-        <v>106</v>
-      </c>
-      <c r="M40" t="s">
-        <v>48</v>
-      </c>
-      <c r="N40" t="s">
-        <v>49</v>
-      </c>
-      <c r="O40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>2011</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" s="2">
-        <v>41900</v>
+        <v>41914</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="F41" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="G41">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H41">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="2"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K41" t="s">
-        <v>47</v>
-      </c>
-      <c r="M41" t="s">
-        <v>157</v>
-      </c>
-      <c r="N41" t="s">
-        <v>49</v>
-      </c>
-      <c r="O41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>2011</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C42" s="2">
-        <v>41907</v>
+        <v>41928</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="G42">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H42">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="2"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K42" t="s">
-        <v>52</v>
-      </c>
-      <c r="M42" t="s">
-        <v>160</v>
-      </c>
-      <c r="N42" t="s">
-        <v>49</v>
-      </c>
-      <c r="O42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>2011</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C43" s="2">
-        <v>41914</v>
+        <v>41936</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="F43" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="G43">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="H43">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="2"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K43" t="s">
-        <v>114</v>
-      </c>
-      <c r="M43" t="s">
-        <v>48</v>
-      </c>
-      <c r="N43" t="s">
-        <v>42</v>
-      </c>
-      <c r="O43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>2011</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44" s="2">
-        <v>41928</v>
+        <v>41942</v>
       </c>
       <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" t="s">
         <v>135</v>
       </c>
-      <c r="E44" t="s">
-        <v>50</v>
-      </c>
       <c r="F44" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="G44">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I44" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="2"/>
         <v>HOME</v>
       </c>
       <c r="K44" t="s">
-        <v>118</v>
-      </c>
-      <c r="M44" t="s">
-        <v>48</v>
-      </c>
-      <c r="N44" t="s">
-        <v>49</v>
-      </c>
-      <c r="O44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>2011</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C45" s="2">
-        <v>41936</v>
+        <v>41949</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="G45">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H45">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
       </c>
       <c r="K45" t="s">
-        <v>165</v>
-      </c>
-      <c r="M45" t="s">
-        <v>166</v>
-      </c>
-      <c r="N45" t="s">
-        <v>167</v>
-      </c>
-      <c r="O45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>2011</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C46" s="2">
-        <v>41942</v>
+        <v>41956</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="F46" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="G46">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H46">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I46" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="2"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K46" t="s">
-        <v>125</v>
-      </c>
-      <c r="M46" t="s">
-        <v>48</v>
-      </c>
-      <c r="N46" t="s">
-        <v>64</v>
-      </c>
-      <c r="O46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>2011</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C47" s="2">
-        <v>41949</v>
+        <v>41963</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="G47">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H47">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I47" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
       </c>
       <c r="K47" t="s">
-        <v>128</v>
-      </c>
-      <c r="M47" t="s">
-        <v>69</v>
-      </c>
-      <c r="N47" t="s">
-        <v>42</v>
-      </c>
-      <c r="O47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>2011</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2">
-        <v>41956</v>
+        <v>41967</v>
       </c>
       <c r="D48" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="F48" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="G48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H48">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="2"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K48" t="s">
-        <v>173</v>
-      </c>
-      <c r="M48" t="s">
-        <v>174</v>
-      </c>
-      <c r="N48" t="s">
-        <v>49</v>
-      </c>
-      <c r="O48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>2011</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C49" s="2">
-        <v>41963</v>
+        <v>41977</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="E49" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="G49">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H49">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
       </c>
       <c r="K49" t="s">
-        <v>176</v>
-      </c>
-      <c r="M49" t="s">
-        <v>48</v>
-      </c>
-      <c r="N49" t="s">
-        <v>49</v>
-      </c>
-      <c r="O49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>2011</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C50" s="2">
-        <v>41967</v>
+        <v>41984</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="E50" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="F50" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="G50">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="2"/>
         <v>HOME</v>
       </c>
       <c r="K50" t="s">
-        <v>179</v>
-      </c>
-      <c r="M50" t="s">
-        <v>48</v>
-      </c>
-      <c r="N50" t="s">
-        <v>180</v>
-      </c>
-      <c r="O50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>2011</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C51" s="2">
-        <v>41977</v>
+        <v>41991</v>
       </c>
       <c r="D51" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="F51" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="G51">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H51">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="I51" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
       </c>
       <c r="K51" t="s">
-        <v>140</v>
-      </c>
-      <c r="M51" t="s">
-        <v>129</v>
-      </c>
-      <c r="N51" t="s">
-        <v>49</v>
-      </c>
-      <c r="O51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>2011</v>
       </c>
       <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="C52" s="2">
+        <v>41997</v>
+      </c>
+      <c r="D52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" t="s">
+        <v>152</v>
+      </c>
+      <c r="G52">
+        <v>20</v>
+      </c>
+      <c r="H52">
         <v>14</v>
       </c>
-      <c r="C52" s="2">
-        <v>41984</v>
-      </c>
-      <c r="D52" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s">
-        <v>183</v>
-      </c>
-      <c r="F52" t="s">
-        <v>182</v>
-      </c>
-      <c r="G52">
-        <v>24</v>
-      </c>
-      <c r="H52">
-        <v>10</v>
-      </c>
       <c r="I52" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="2"/>
         <v>HOME</v>
       </c>
       <c r="K52" t="s">
-        <v>184</v>
-      </c>
-      <c r="M52" t="s">
-        <v>48</v>
-      </c>
-      <c r="N52" t="s">
-        <v>49</v>
-      </c>
-      <c r="O52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>2011</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C53" s="2">
-        <v>41991</v>
+        <v>41640</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="E53" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="F53" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="G53">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H53">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I53" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
       </c>
       <c r="K53" t="s">
-        <v>186</v>
-      </c>
-      <c r="M53" t="s">
-        <v>139</v>
-      </c>
-      <c r="N53" t="s">
-        <v>42</v>
-      </c>
-      <c r="O53" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54">
-        <v>2011</v>
-      </c>
-      <c r="B54">
-        <v>16</v>
-      </c>
-      <c r="C54" s="2">
-        <v>41997</v>
-      </c>
-      <c r="D54" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" t="s">
-        <v>187</v>
-      </c>
-      <c r="G54">
-        <v>20</v>
-      </c>
-      <c r="H54">
-        <v>14</v>
-      </c>
-      <c r="I54" t="s">
-        <v>303</v>
-      </c>
-      <c r="J54" t="str">
-        <f t="shared" si="2"/>
-        <v>HOME</v>
-      </c>
-      <c r="K54" t="s">
-        <v>188</v>
-      </c>
-      <c r="M54" t="s">
-        <v>48</v>
-      </c>
-      <c r="N54" t="s">
-        <v>49</v>
-      </c>
-      <c r="O54" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55">
-        <v>2011</v>
-      </c>
-      <c r="B55">
-        <v>17</v>
-      </c>
-      <c r="C55" s="2">
-        <v>41640</v>
-      </c>
-      <c r="D55" t="s">
-        <v>189</v>
-      </c>
-      <c r="E55" t="s">
-        <v>100</v>
-      </c>
-      <c r="F55" t="s">
-        <v>190</v>
-      </c>
-      <c r="G55">
-        <v>24</v>
-      </c>
-      <c r="H55">
-        <v>16</v>
-      </c>
-      <c r="I55" t="s">
-        <v>303</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>2010</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>41895</v>
+      </c>
+      <c r="D56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <v>9</v>
+      </c>
+      <c r="I56" t="s">
+        <v>255</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" ref="J56:J71" si="3">IF(ISERROR(FIND("at",E56)=1),"HOME", "AWAY")</f>
         <v>AWAY</v>
       </c>
-      <c r="K55" t="s">
-        <v>191</v>
-      </c>
-      <c r="M55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="K56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>2010</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2">
+        <v>41901</v>
+      </c>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" t="s">
+        <v>159</v>
+      </c>
+      <c r="G57">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>15</v>
+      </c>
+      <c r="I57" t="s">
+        <v>254</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="3"/>
+        <v>AWAY</v>
+      </c>
+      <c r="K57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>2010</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" s="2">
-        <v>41895</v>
+        <v>41908</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="E58" t="s">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="G58">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H58">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I58" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" ref="J58:J73" si="3">IF(ISERROR(FIND("at",E58)=1),"HOME", "AWAY")</f>
-        <v>AWAY</v>
+        <f t="shared" si="3"/>
+        <v>HOME</v>
       </c>
       <c r="K58" t="s">
-        <v>106</v>
-      </c>
-      <c r="M58" t="s">
-        <v>194</v>
-      </c>
-      <c r="N58" t="s">
-        <v>167</v>
-      </c>
-      <c r="O58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>2010</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" s="2">
-        <v>41901</v>
+        <v>41915</v>
       </c>
       <c r="D59" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E59" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F59" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="G59">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H59">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="3"/>
         <v>AWAY</v>
       </c>
       <c r="K59" t="s">
-        <v>47</v>
-      </c>
-      <c r="M59" t="s">
-        <v>103</v>
-      </c>
-      <c r="N59" t="s">
-        <v>49</v>
-      </c>
-      <c r="O59" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>2010</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C60" s="2">
-        <v>41908</v>
+        <v>41922</v>
       </c>
       <c r="D60" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="G60">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>17</v>
       </c>
       <c r="I60" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="3"/>
         <v>HOME</v>
       </c>
       <c r="K60" t="s">
-        <v>52</v>
-      </c>
-      <c r="M60" t="s">
-        <v>48</v>
-      </c>
-      <c r="N60" t="s">
-        <v>49</v>
-      </c>
-      <c r="O60" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>2010</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C61" s="2">
-        <v>41915</v>
+        <v>41929</v>
       </c>
       <c r="D61" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E61" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="F61" t="s">
-        <v>197</v>
+        <v>62</v>
       </c>
       <c r="G61">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H61">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I61" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="3"/>
         <v>AWAY</v>
       </c>
       <c r="K61" t="s">
-        <v>114</v>
-      </c>
-      <c r="M61" t="s">
-        <v>69</v>
-      </c>
-      <c r="N61" t="s">
-        <v>49</v>
-      </c>
-      <c r="O61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>2010</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C62" s="2">
-        <v>41922</v>
+        <v>41936</v>
       </c>
       <c r="D62" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E62" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F62" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="G62">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H62">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I62" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="3"/>
         <v>HOME</v>
       </c>
       <c r="K62" t="s">
-        <v>118</v>
-      </c>
-      <c r="M62" t="s">
-        <v>48</v>
-      </c>
-      <c r="N62" t="s">
-        <v>49</v>
-      </c>
-      <c r="O62" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>2010</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C63" s="2">
-        <v>41929</v>
+        <v>41950</v>
       </c>
       <c r="D63" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E63" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="G63">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H63">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="3"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K63" t="s">
-        <v>165</v>
-      </c>
-      <c r="M63" t="s">
-        <v>200</v>
-      </c>
-      <c r="N63" t="s">
-        <v>49</v>
-      </c>
-      <c r="O63" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>2010</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C64" s="2">
-        <v>41936</v>
+        <v>41954</v>
       </c>
       <c r="D64" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E64" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="F64" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="G64">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H64">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I64" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="3"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K64" t="s">
-        <v>125</v>
-      </c>
-      <c r="M64" t="s">
-        <v>48</v>
-      </c>
-      <c r="N64" t="s">
-        <v>49</v>
-      </c>
-      <c r="O64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>2010</v>
       </c>
       <c r="B65">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C65" s="2">
-        <v>41950</v>
+        <v>41964</v>
       </c>
       <c r="D65" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E65" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="F65" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="G65">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H65">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I65" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="3"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K65" t="s">
-        <v>128</v>
-      </c>
-      <c r="M65" t="s">
-        <v>48</v>
-      </c>
-      <c r="N65" t="s">
-        <v>49</v>
-      </c>
-      <c r="O65" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>2010</v>
       </c>
       <c r="B66">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2">
+        <v>41971</v>
+      </c>
+      <c r="D66" t="s">
+        <v>172</v>
+      </c>
+      <c r="E66" t="s">
+        <v>173</v>
+      </c>
+      <c r="F66" t="s">
+        <v>174</v>
+      </c>
+      <c r="G66">
+        <v>17</v>
+      </c>
+      <c r="H66">
         <v>10</v>
       </c>
-      <c r="C66" s="2">
-        <v>41954</v>
-      </c>
-      <c r="D66" t="s">
-        <v>111</v>
-      </c>
-      <c r="E66" t="s">
-        <v>205</v>
-      </c>
-      <c r="F66" t="s">
-        <v>206</v>
-      </c>
-      <c r="G66">
-        <v>21</v>
-      </c>
-      <c r="H66">
-        <v>26</v>
-      </c>
       <c r="I66" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J66" t="str">
         <f t="shared" si="3"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K66" t="s">
-        <v>173</v>
-      </c>
-      <c r="M66" t="s">
-        <v>207</v>
-      </c>
-      <c r="N66" t="s">
-        <v>180</v>
-      </c>
-      <c r="O66" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>2010</v>
       </c>
       <c r="B67">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C67" s="2">
-        <v>41964</v>
+        <v>41978</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E67" t="s">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="F67" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="G67">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H67">
         <v>13</v>
       </c>
       <c r="I67" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="J67" t="str">
         <f t="shared" si="3"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K67" t="s">
         <v>176</v>
       </c>
-      <c r="M67" t="s">
-        <v>210</v>
-      </c>
-      <c r="N67" t="s">
-        <v>49</v>
-      </c>
-      <c r="O67" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>2010</v>
       </c>
       <c r="B68">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C68" s="2">
-        <v>41971</v>
+        <v>41986</v>
       </c>
       <c r="D68" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="E68" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="F68" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="G68">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I68" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J68" t="str">
         <f t="shared" si="3"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K68" t="s">
-        <v>179</v>
-      </c>
-      <c r="M68" t="s">
-        <v>48</v>
-      </c>
-      <c r="N68" t="s">
-        <v>64</v>
-      </c>
-      <c r="O68" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>2010</v>
       </c>
       <c r="B69">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C69" s="2">
-        <v>41978</v>
+        <v>41992</v>
       </c>
       <c r="D69" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="F69" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="G69">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I69" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J69" t="str">
         <f t="shared" si="3"/>
         <v>HOME</v>
       </c>
       <c r="K69" t="s">
-        <v>215</v>
-      </c>
-      <c r="M69" t="s">
-        <v>48</v>
-      </c>
-      <c r="N69" t="s">
-        <v>42</v>
-      </c>
-      <c r="O69" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>2010</v>
       </c>
       <c r="B70">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C70" s="2">
-        <v>41986</v>
+        <v>41999</v>
       </c>
       <c r="D70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="F70" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="G70">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H70">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="3"/>
         <v>AWAY</v>
       </c>
       <c r="K70" t="s">
-        <v>143</v>
-      </c>
-      <c r="M70" t="s">
-        <v>126</v>
-      </c>
-      <c r="N70" t="s">
-        <v>167</v>
-      </c>
-      <c r="O70" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>2010</v>
       </c>
       <c r="B71">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C71" s="2">
-        <v>41992</v>
+        <v>41641</v>
       </c>
       <c r="D71" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E71" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="F71" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="G71">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H71">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I71" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J71" t="str">
         <f t="shared" si="3"/>
+        <v>AWAY</v>
+      </c>
+      <c r="K71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>2009</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>41895</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E73" t="s">
+        <v>182</v>
+      </c>
+      <c r="F73" t="s">
+        <v>183</v>
+      </c>
+      <c r="G73">
+        <v>38</v>
+      </c>
+      <c r="H73">
+        <v>24</v>
+      </c>
+      <c r="I73" t="s">
+        <v>255</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" ref="J73:J88" si="4">IF(ISERROR(FIND("at",E73)=1),"HOME", "AWAY")</f>
         <v>HOME</v>
       </c>
-      <c r="K71" t="s">
-        <v>186</v>
-      </c>
-      <c r="M71" t="s">
-        <v>48</v>
-      </c>
-      <c r="N71" t="s">
-        <v>64</v>
-      </c>
-      <c r="O71" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72">
-        <v>2010</v>
-      </c>
-      <c r="B72">
-        <v>16</v>
-      </c>
-      <c r="C72" s="2">
-        <v>41999</v>
-      </c>
-      <c r="D72" t="s">
-        <v>44</v>
-      </c>
-      <c r="E72" t="s">
-        <v>70</v>
-      </c>
-      <c r="F72" t="s">
-        <v>219</v>
-      </c>
-      <c r="G72">
-        <v>20</v>
-      </c>
-      <c r="H72">
-        <v>10</v>
-      </c>
-      <c r="I72" t="s">
-        <v>303</v>
-      </c>
-      <c r="J72" t="str">
-        <f t="shared" si="3"/>
+      <c r="K73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>2009</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" s="2">
+        <v>41902</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E74" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" t="s">
+        <v>184</v>
+      </c>
+      <c r="G74">
+        <v>31</v>
+      </c>
+      <c r="H74">
+        <v>26</v>
+      </c>
+      <c r="I74" t="s">
+        <v>255</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="4"/>
         <v>AWAY</v>
       </c>
-      <c r="K72" t="s">
-        <v>188</v>
-      </c>
-      <c r="M72" t="s">
-        <v>129</v>
-      </c>
-      <c r="N72" t="s">
-        <v>49</v>
-      </c>
-      <c r="O72" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73">
-        <v>2010</v>
-      </c>
-      <c r="B73">
-        <v>17</v>
-      </c>
-      <c r="C73" s="2">
-        <v>41641</v>
-      </c>
-      <c r="D73" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" t="s">
-        <v>74</v>
-      </c>
-      <c r="F73" t="s">
-        <v>220</v>
-      </c>
-      <c r="G73">
-        <v>13</v>
-      </c>
-      <c r="H73">
-        <v>7</v>
-      </c>
-      <c r="I73" t="s">
-        <v>303</v>
-      </c>
-      <c r="J73" t="str">
-        <f t="shared" si="3"/>
-        <v>AWAY</v>
-      </c>
-      <c r="K73" t="s">
-        <v>191</v>
-      </c>
-      <c r="M73" t="s">
-        <v>48</v>
-      </c>
-      <c r="N73" t="s">
-        <v>49</v>
-      </c>
-      <c r="O73" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+      <c r="K74" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>2009</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75" s="2">
-        <v>41895</v>
+        <v>41909</v>
       </c>
       <c r="D75" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="E75" t="s">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="G75">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" ref="J75:J90" si="4">IF(ISERROR(FIND("at",E75)=1),"HOME", "AWAY")</f>
+        <f t="shared" si="4"/>
         <v>HOME</v>
       </c>
       <c r="K75" t="s">
-        <v>106</v>
-      </c>
-      <c r="M75" t="s">
-        <v>48</v>
-      </c>
-      <c r="N75" t="s">
-        <v>49</v>
-      </c>
-      <c r="O75" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>2009</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C76" s="2">
-        <v>41902</v>
+        <v>41916</v>
       </c>
       <c r="D76" s="3">
-        <v>0.67708333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E76" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F76" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="G76">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H76">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I76" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" si="4"/>
         <v>AWAY</v>
       </c>
       <c r="K76" t="s">
-        <v>224</v>
-      </c>
-      <c r="M76" t="s">
-        <v>139</v>
-      </c>
-      <c r="N76" t="s">
-        <v>49</v>
-      </c>
-      <c r="O76" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>2009</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C77" s="2">
-        <v>41909</v>
+        <v>41923</v>
       </c>
       <c r="D77" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F77" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="G77">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I77" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="J77" t="str">
         <f t="shared" si="4"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K77" t="s">
-        <v>226</v>
-      </c>
-      <c r="M77" t="s">
-        <v>48</v>
-      </c>
-      <c r="N77" t="s">
-        <v>49</v>
-      </c>
-      <c r="O77" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>2009</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C78" s="2">
-        <v>41916</v>
+        <v>41930</v>
       </c>
       <c r="D78" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="E78" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F78" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="G78">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H78">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I78" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="J78" t="str">
         <f t="shared" si="4"/>
         <v>AWAY</v>
       </c>
       <c r="K78" t="s">
-        <v>114</v>
-      </c>
-      <c r="M78" t="s">
-        <v>200</v>
-      </c>
-      <c r="N78" t="s">
-        <v>49</v>
-      </c>
-      <c r="O78" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>2009</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" s="2">
-        <v>41923</v>
+        <v>41944</v>
       </c>
       <c r="D79" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="E79" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="F79" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="G79">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I79" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J79" t="str">
         <f t="shared" si="4"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K79" t="s">
-        <v>59</v>
-      </c>
-      <c r="M79" t="s">
-        <v>48</v>
-      </c>
-      <c r="N79" t="s">
-        <v>49</v>
-      </c>
-      <c r="O79" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>2009</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C80" s="2">
-        <v>41930</v>
+        <v>41951</v>
       </c>
       <c r="D80" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="E80" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="F80" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="G80">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H80">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I80" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="J80" t="str">
         <f t="shared" si="4"/>
         <v>AWAY</v>
       </c>
       <c r="K80" t="s">
-        <v>63</v>
-      </c>
-      <c r="M80" t="s">
-        <v>231</v>
-      </c>
-      <c r="N80" t="s">
-        <v>49</v>
-      </c>
-      <c r="O80" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>2009</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C81" s="2">
-        <v>41944</v>
+        <v>41959</v>
       </c>
       <c r="D81" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E81" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="F81" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="G81">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H81">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J81" t="str">
         <f t="shared" si="4"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K81" t="s">
-        <v>233</v>
-      </c>
-      <c r="M81" t="s">
-        <v>48</v>
-      </c>
-      <c r="N81" t="s">
-        <v>49</v>
-      </c>
-      <c r="O81" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>2009</v>
       </c>
       <c r="B82">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C82" s="2">
-        <v>41951</v>
+        <v>41965</v>
       </c>
       <c r="D82" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="E82" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="F82" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="G82">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H82">
         <v>17</v>
       </c>
       <c r="I82" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="J82" t="str">
         <f t="shared" si="4"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K82" t="s">
-        <v>235</v>
-      </c>
-      <c r="M82" t="s">
-        <v>103</v>
-      </c>
-      <c r="N82" t="s">
-        <v>49</v>
-      </c>
-      <c r="O82" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>2009</v>
       </c>
       <c r="B83">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C83" s="2">
-        <v>41959</v>
+        <v>41972</v>
       </c>
       <c r="D83" s="3">
-        <v>0.85416666666666663</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="E83" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F83" t="s">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="G83">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I83" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J83" t="str">
         <f t="shared" si="4"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K83" t="s">
-        <v>237</v>
-      </c>
-      <c r="M83" t="s">
-        <v>129</v>
-      </c>
-      <c r="N83" t="s">
-        <v>167</v>
-      </c>
-      <c r="O83" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>2009</v>
       </c>
       <c r="B84">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C84" s="2">
-        <v>41965</v>
+        <v>41980</v>
       </c>
       <c r="D84" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E84" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="F84" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="G84">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H84">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I84" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="J84" t="str">
         <f t="shared" si="4"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K84" t="s">
-        <v>239</v>
-      </c>
-      <c r="M84" t="s">
-        <v>48</v>
-      </c>
-      <c r="N84" t="s">
-        <v>49</v>
-      </c>
-      <c r="O84" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>2009</v>
       </c>
       <c r="B85">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C85" s="2">
-        <v>41972</v>
+        <v>41986</v>
       </c>
       <c r="D85" s="3">
-        <v>0.84722222222222221</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E85" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="F85" t="s">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="G85">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H85">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J85" t="str">
         <f t="shared" si="4"/>
         <v>HOME</v>
       </c>
       <c r="K85" t="s">
-        <v>240</v>
-      </c>
-      <c r="M85" t="s">
-        <v>48</v>
-      </c>
-      <c r="N85" t="s">
-        <v>42</v>
-      </c>
-      <c r="O85" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>2009</v>
       </c>
       <c r="B86">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C86" s="2">
-        <v>41980</v>
+        <v>41993</v>
       </c>
       <c r="D86" s="3">
-        <v>0.85416666666666663</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E86" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="F86" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="G86">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I86" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J86" t="str">
         <f t="shared" si="4"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K86" t="s">
-        <v>86</v>
-      </c>
-      <c r="M86" t="s">
-        <v>243</v>
-      </c>
-      <c r="N86" t="s">
-        <v>167</v>
-      </c>
-      <c r="O86" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>2009</v>
       </c>
       <c r="B87">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C87" s="2">
-        <v>41986</v>
+        <v>42000</v>
       </c>
       <c r="D87" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="E87" t="s">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c r="F87" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="G87">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I87" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="J87" t="str">
         <f t="shared" si="4"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K87" t="s">
-        <v>89</v>
-      </c>
-      <c r="M87" t="s">
-        <v>48</v>
-      </c>
-      <c r="N87" t="s">
-        <v>64</v>
-      </c>
-      <c r="O87" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>2009</v>
       </c>
       <c r="B88">
-        <v>15</v>
-      </c>
-      <c r="C88" s="2">
-        <v>41993</v>
+        <v>17</v>
+      </c>
+      <c r="C88" s="4">
+        <v>40181</v>
       </c>
       <c r="D88" s="3">
         <v>0.67708333333333337</v>
       </c>
       <c r="E88" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="F88" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="G88">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H88">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I88" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J88" t="str">
         <f t="shared" si="4"/>
+        <v>AWAY</v>
+      </c>
+      <c r="K88" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>2008</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" t="s">
+        <v>58</v>
+      </c>
+      <c r="F90" t="s">
+        <v>174</v>
+      </c>
+      <c r="G90">
+        <v>17</v>
+      </c>
+      <c r="H90">
+        <v>10</v>
+      </c>
+      <c r="I90" t="s">
+        <v>255</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" ref="J90:J105" si="5">IF(ISERROR(FIND("at",E90)=1),"HOME", "AWAY")</f>
+        <v>AWAY</v>
+      </c>
+      <c r="K90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>2008</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>212</v>
+      </c>
+      <c r="D91" t="s">
+        <v>213</v>
+      </c>
+      <c r="E91" t="s">
+        <v>36</v>
+      </c>
+      <c r="F91" t="s">
+        <v>214</v>
+      </c>
+      <c r="G91">
+        <v>28</v>
+      </c>
+      <c r="H91">
+        <v>10</v>
+      </c>
+      <c r="I91" t="s">
+        <v>255</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
-      <c r="K88" t="s">
-        <v>93</v>
-      </c>
-      <c r="M88" t="s">
-        <v>48</v>
-      </c>
-      <c r="N88" t="s">
-        <v>64</v>
-      </c>
-      <c r="O88" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89">
-        <v>2009</v>
-      </c>
-      <c r="B89">
-        <v>16</v>
-      </c>
-      <c r="C89" s="2">
-        <v>42000</v>
-      </c>
-      <c r="D89" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E89" t="s">
-        <v>66</v>
-      </c>
-      <c r="F89" t="s">
-        <v>248</v>
-      </c>
-      <c r="G89">
-        <v>20</v>
-      </c>
-      <c r="H89">
-        <v>23</v>
-      </c>
-      <c r="I89" t="s">
-        <v>302</v>
-      </c>
-      <c r="J89" t="str">
-        <f t="shared" si="4"/>
-        <v>AWAY</v>
-      </c>
-      <c r="K89" t="s">
-        <v>98</v>
-      </c>
-      <c r="M89" t="s">
-        <v>69</v>
-      </c>
-      <c r="N89" t="s">
-        <v>49</v>
-      </c>
-      <c r="O89" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90">
-        <v>2009</v>
-      </c>
-      <c r="B90">
-        <v>17</v>
-      </c>
-      <c r="C90" s="4">
-        <v>40181</v>
-      </c>
-      <c r="D90" s="3">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="E90" t="s">
-        <v>249</v>
-      </c>
-      <c r="F90" t="s">
-        <v>250</v>
-      </c>
-      <c r="G90">
-        <v>21</v>
-      </c>
-      <c r="H90">
-        <v>13</v>
-      </c>
-      <c r="I90" t="s">
-        <v>303</v>
-      </c>
-      <c r="J90" t="str">
-        <f t="shared" si="4"/>
-        <v>AWAY</v>
-      </c>
-      <c r="K90" t="s">
-        <v>251</v>
-      </c>
-      <c r="M90" t="s">
-        <v>252</v>
-      </c>
-      <c r="N90" t="s">
-        <v>49</v>
-      </c>
-      <c r="O90" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+      <c r="K91" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>2008</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="D92" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E92" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F92" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G92">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H92">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I92" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="J92" t="str">
-        <f t="shared" ref="J92:J107" si="5">IF(ISERROR(FIND("at",E92)=1),"HOME", "AWAY")</f>
-        <v>AWAY</v>
+        <f t="shared" si="5"/>
+        <v>HOME</v>
       </c>
       <c r="K92" t="s">
-        <v>106</v>
-      </c>
-      <c r="M92" t="s">
-        <v>254</v>
-      </c>
-      <c r="N92" t="s">
-        <v>49</v>
-      </c>
-      <c r="O92" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>2008</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="D93" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="F93" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="G93">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H93">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I93" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="J93" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K93" t="s">
-        <v>224</v>
-      </c>
-      <c r="M93" t="s">
-        <v>254</v>
-      </c>
-      <c r="N93" t="s">
-        <v>49</v>
-      </c>
-      <c r="O93" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>2008</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="D94" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E94" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="F94" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="G94">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H94">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I94" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="J94" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K94" t="s">
-        <v>52</v>
-      </c>
-      <c r="M94" t="s">
-        <v>69</v>
-      </c>
-      <c r="N94" t="s">
-        <v>167</v>
-      </c>
-      <c r="O94" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>2008</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="D95" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E95" t="s">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="F95" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="G95">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H95">
         <v>13</v>
       </c>
       <c r="I95" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J95" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K95" t="s">
-        <v>55</v>
-      </c>
-      <c r="M95" t="s">
-        <v>254</v>
-      </c>
-      <c r="N95" t="s">
-        <v>49</v>
-      </c>
-      <c r="O95" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>2008</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="D96" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>103</v>
       </c>
       <c r="F96" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H96">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I96" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J96" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K96" t="s">
-        <v>265</v>
-      </c>
-      <c r="M96" t="s">
-        <v>263</v>
-      </c>
-      <c r="N96" t="s">
-        <v>49</v>
-      </c>
-      <c r="O96" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>2008</v>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="D97" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E97" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="F97" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="G97">
+        <v>37</v>
+      </c>
+      <c r="H97">
         <v>27</v>
       </c>
-      <c r="H97">
-        <v>13</v>
-      </c>
       <c r="I97" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J97" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K97" t="s">
-        <v>63</v>
-      </c>
-      <c r="M97" t="s">
-        <v>267</v>
-      </c>
-      <c r="N97" t="s">
-        <v>49</v>
-      </c>
-      <c r="O97" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>2008</v>
       </c>
       <c r="B98">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="D98" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E98" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G98">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H98">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I98" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J98" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K98" t="s">
-        <v>233</v>
-      </c>
-      <c r="M98" t="s">
-        <v>254</v>
-      </c>
-      <c r="N98" t="s">
-        <v>49</v>
-      </c>
-      <c r="O98" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>2008</v>
       </c>
       <c r="B99">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="D99" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E99" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="F99" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="G99">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="H99">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I99" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="J99" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K99" t="s">
-        <v>273</v>
-      </c>
-      <c r="M99" t="s">
-        <v>129</v>
-      </c>
-      <c r="N99" t="s">
-        <v>49</v>
-      </c>
-      <c r="O99" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>2008</v>
       </c>
       <c r="B100">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="D100" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E100" t="s">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="F100" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="G100">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I100" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J100" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K100" t="s">
-        <v>173</v>
-      </c>
-      <c r="M100" t="s">
-        <v>126</v>
-      </c>
-      <c r="N100" t="s">
-        <v>49</v>
-      </c>
-      <c r="O100" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>2008</v>
       </c>
       <c r="B101">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="D101" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E101" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="F101" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="G101">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H101">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J101" t="str">
         <f t="shared" si="5"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K101" t="s">
-        <v>279</v>
-      </c>
-      <c r="M101" t="s">
-        <v>277</v>
-      </c>
-      <c r="N101" t="s">
-        <v>49</v>
-      </c>
-      <c r="O101" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>2008</v>
       </c>
       <c r="B102">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="D102" t="s">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="E102" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="F102" t="s">
-        <v>282</v>
+        <v>147</v>
       </c>
       <c r="G102">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H102">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I102" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J102" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K102" t="s">
-        <v>283</v>
-      </c>
-      <c r="M102" t="s">
-        <v>254</v>
-      </c>
-      <c r="N102" t="s">
-        <v>64</v>
-      </c>
-      <c r="O102" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>2008</v>
       </c>
       <c r="B103">
+        <v>15</v>
+      </c>
+      <c r="C103" t="s">
+        <v>242</v>
+      </c>
+      <c r="D103" t="s">
+        <v>213</v>
+      </c>
+      <c r="E103" t="s">
+        <v>67</v>
+      </c>
+      <c r="F103" t="s">
+        <v>243</v>
+      </c>
+      <c r="G103">
+        <v>9</v>
+      </c>
+      <c r="H103">
         <v>13</v>
       </c>
-      <c r="C103" t="s">
-        <v>284</v>
-      </c>
-      <c r="D103" t="s">
-        <v>44</v>
-      </c>
-      <c r="E103" t="s">
-        <v>74</v>
-      </c>
-      <c r="F103" t="s">
-        <v>225</v>
-      </c>
-      <c r="G103">
-        <v>34</v>
-      </c>
-      <c r="H103">
-        <v>3</v>
-      </c>
       <c r="I103" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="J103" t="str">
         <f t="shared" si="5"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K103" t="s">
-        <v>215</v>
-      </c>
-      <c r="M103" t="s">
-        <v>103</v>
-      </c>
-      <c r="N103" t="s">
-        <v>49</v>
-      </c>
-      <c r="O103" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>2008</v>
       </c>
       <c r="B104">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="D104" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="E104" t="s">
-        <v>285</v>
+        <v>95</v>
       </c>
       <c r="F104" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="G104">
+        <v>33</v>
+      </c>
+      <c r="H104">
         <v>24</v>
       </c>
-      <c r="H104">
-        <v>10</v>
-      </c>
       <c r="I104" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="J104" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K104" t="s">
-        <v>143</v>
-      </c>
-      <c r="M104" t="s">
-        <v>254</v>
-      </c>
-      <c r="N104" t="s">
-        <v>42</v>
-      </c>
-      <c r="O104" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>2008</v>
       </c>
       <c r="B105">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C105" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="D105" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="E105" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="F105" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="G105">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="H105">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I105" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="J105" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K105" t="s">
-        <v>146</v>
-      </c>
-      <c r="M105" t="s">
-        <v>254</v>
-      </c>
-      <c r="N105" t="s">
-        <v>49</v>
-      </c>
-      <c r="O105" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="A106">
-        <v>2008</v>
-      </c>
-      <c r="B106">
-        <v>16</v>
-      </c>
-      <c r="C106" t="s">
-        <v>290</v>
-      </c>
-      <c r="D106" t="s">
-        <v>292</v>
-      </c>
-      <c r="E106" t="s">
-        <v>120</v>
-      </c>
-      <c r="F106" t="s">
-        <v>294</v>
-      </c>
-      <c r="G106">
-        <v>33</v>
-      </c>
-      <c r="H106">
-        <v>24</v>
-      </c>
-      <c r="I106" t="s">
-        <v>303</v>
-      </c>
-      <c r="J106" t="str">
-        <f t="shared" si="5"/>
-        <v>HOME</v>
-      </c>
-      <c r="K106" t="s">
-        <v>150</v>
-      </c>
-      <c r="M106" t="s">
-        <v>293</v>
-      </c>
-      <c r="N106" t="s">
-        <v>291</v>
-      </c>
-      <c r="O106" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107">
-        <v>2008</v>
-      </c>
-      <c r="B107">
-        <v>17</v>
-      </c>
-      <c r="C107" t="s">
-        <v>296</v>
-      </c>
-      <c r="D107" t="s">
-        <v>256</v>
-      </c>
-      <c r="E107" t="s">
-        <v>295</v>
-      </c>
-      <c r="F107" t="s">
-        <v>297</v>
-      </c>
-      <c r="G107">
-        <v>27</v>
-      </c>
-      <c r="H107">
-        <v>7</v>
-      </c>
-      <c r="I107" t="s">
-        <v>303</v>
-      </c>
-      <c r="J107" t="str">
-        <f t="shared" si="5"/>
-        <v>HOME</v>
-      </c>
-      <c r="K107" t="s">
-        <v>298</v>
-      </c>
-      <c r="M107" t="s">
-        <v>254</v>
-      </c>
-      <c r="N107" t="s">
-        <v>49</v>
-      </c>
-      <c r="O107" t="s">
-        <v>43</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Ravens-since-2008.xlsx
+++ b/Ravens-since-2008.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="220" windowWidth="32240" windowHeight="21420" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="760" yWindow="140" windowWidth="37460" windowHeight="24580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,59 +20,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="257">
-  <si>
-    <t>Flacco Career Ratings</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="258">
   <si>
     <t>Baltimore Ravens</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>Season</t>
   </si>
   <si>
     <t>Team</t>
   </si>
   <si>
-    <t>Passing</t>
-  </si>
-  <si>
-    <t>Rushing</t>
-  </si>
-  <si>
-    <t>Fumbles</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
     <t>GS</t>
   </si>
   <si>
-    <t>Comp</t>
-  </si>
-  <si>
-    <t>Att</t>
-  </si>
-  <si>
-    <t>Pct</t>
-  </si>
-  <si>
-    <t>Yds</t>
-  </si>
-  <si>
-    <t>Avg</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Int</t>
-  </si>
-  <si>
     <t>Sck</t>
   </si>
   <si>
@@ -85,30 +49,15 @@
     <t>FUM</t>
   </si>
   <si>
-    <t>Lost</t>
-  </si>
-  <si>
     <t>Turnover Ratio</t>
   </si>
   <si>
-    <t>Wins</t>
-  </si>
-  <si>
-    <t>Losses</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Week</t>
   </si>
   <si>
-    <t>Kickoff (ET)</t>
-  </si>
-  <si>
     <t>Opponent</t>
   </si>
   <si>
@@ -791,6 +740,60 @@
   </si>
   <si>
     <t>Record</t>
+  </si>
+  <si>
+    <t>WinRate</t>
+  </si>
+  <si>
+    <t>RaventsPoints</t>
+  </si>
+  <si>
+    <t>OppPoints</t>
+  </si>
+  <si>
+    <t>RavensPoints</t>
+  </si>
+  <si>
+    <t>Kickoff-ET</t>
+  </si>
+  <si>
+    <t>Flacco-Rating</t>
+  </si>
+  <si>
+    <t>YdsPassing</t>
+  </si>
+  <si>
+    <t>Yds-Rushing</t>
+  </si>
+  <si>
+    <t>Avg-Rushing</t>
+  </si>
+  <si>
+    <t>Lost-FUM</t>
+  </si>
+  <si>
+    <t>Int-Passing</t>
+  </si>
+  <si>
+    <t>TD-Passing</t>
+  </si>
+  <si>
+    <t>TD-Rushing</t>
+  </si>
+  <si>
+    <t>Avg-Passing</t>
+  </si>
+  <si>
+    <t>Pct-Passing</t>
+  </si>
+  <si>
+    <t>Attempted-Passes</t>
+  </si>
+  <si>
+    <t>Completed-Passes</t>
+  </si>
+  <si>
+    <t>Attempts-Rushing</t>
   </si>
 </sst>
 </file>
@@ -822,12 +825,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -839,7 +848,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -907,15 +916,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -949,6 +987,19 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -982,6 +1033,19 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1311,537 +1375,563 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" t="s">
+        <v>242</v>
+      </c>
       <c r="E1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O1" t="s">
+        <v>251</v>
+      </c>
+      <c r="P1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>257</v>
+      </c>
+      <c r="U1" t="s">
+        <v>247</v>
+      </c>
+      <c r="V1" t="s">
+        <v>248</v>
+      </c>
+      <c r="W1" t="s">
+        <v>252</v>
+      </c>
+      <c r="X1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2">
+        <v>-5</v>
+      </c>
+      <c r="B2">
+        <v>0.4375</v>
+      </c>
+      <c r="C2">
+        <v>320</v>
+      </c>
+      <c r="D2">
+        <v>362</v>
+      </c>
+      <c r="E2">
+        <f>S2</f>
+        <v>73.099999999999994</v>
+      </c>
+      <c r="F2">
+        <v>2013</v>
+      </c>
+      <c r="G2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="E4" t="s">
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>362</v>
+      </c>
+      <c r="K2">
+        <v>614</v>
+      </c>
+      <c r="L2">
+        <v>59</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3912</v>
+      </c>
+      <c r="N2">
+        <v>6.4</v>
+      </c>
+      <c r="O2">
+        <v>19</v>
+      </c>
+      <c r="P2">
+        <v>22</v>
+      </c>
+      <c r="Q2">
+        <v>48</v>
+      </c>
+      <c r="R2">
+        <v>324</v>
+      </c>
+      <c r="S2">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="T2">
+        <v>27</v>
+      </c>
+      <c r="U2">
+        <v>131</v>
+      </c>
+      <c r="V2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>8</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.6875</v>
+      </c>
+      <c r="C3">
+        <v>398</v>
+      </c>
+      <c r="D3">
+        <v>344</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="0">S3</f>
+        <v>87.7</v>
+      </c>
+      <c r="F3">
+        <v>2012</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>317</v>
+      </c>
+      <c r="K3">
+        <v>531</v>
+      </c>
+      <c r="L3">
+        <v>59.7</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3817</v>
+      </c>
+      <c r="N3">
+        <v>7.2</v>
+      </c>
+      <c r="O3">
+        <v>22</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>35</v>
+      </c>
+      <c r="R3">
+        <v>227</v>
+      </c>
+      <c r="S3">
+        <v>87.7</v>
+      </c>
+      <c r="T3">
+        <v>32</v>
+      </c>
+      <c r="U3">
+        <v>22</v>
+      </c>
+      <c r="V3">
+        <v>0.7</v>
+      </c>
+      <c r="W3">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="X3">
+        <v>9</v>
+      </c>
+      <c r="Y3">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T4" t="s">
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.75</v>
+      </c>
+      <c r="C4">
+        <v>378</v>
+      </c>
+      <c r="D4">
+        <v>266</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>80.900000000000006</v>
+      </c>
+      <c r="F4">
+        <v>2011</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>312</v>
+      </c>
+      <c r="K4">
+        <v>542</v>
+      </c>
+      <c r="L4">
+        <v>57.6</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3610</v>
+      </c>
+      <c r="N4">
+        <v>6.7</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4">
+        <v>31</v>
+      </c>
+      <c r="R4">
+        <v>203</v>
+      </c>
+      <c r="S4">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="T4">
+        <v>39</v>
+      </c>
+      <c r="U4">
+        <v>88</v>
+      </c>
+      <c r="V4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>11</v>
+      </c>
+      <c r="Y4">
         <v>6</v>
       </c>
-      <c r="W4" t="s">
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="B5">
+        <v>0.75</v>
+      </c>
+      <c r="C5">
+        <v>357</v>
+      </c>
+      <c r="D5">
+        <v>270</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>93.6</v>
+      </c>
+      <c r="F5">
+        <v>2010</v>
+      </c>
       <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>306</v>
+      </c>
+      <c r="K5">
+        <v>489</v>
+      </c>
+      <c r="L5">
+        <v>62.6</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3622</v>
+      </c>
+      <c r="N5">
+        <v>7.4</v>
+      </c>
+      <c r="O5">
+        <v>25</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>40</v>
+      </c>
+      <c r="R5">
+        <v>294</v>
+      </c>
+      <c r="S5">
+        <v>93.6</v>
+      </c>
+      <c r="T5">
+        <v>43</v>
+      </c>
+      <c r="U5">
+        <v>84</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>9</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.5625</v>
+      </c>
+      <c r="C6">
+        <v>391</v>
+      </c>
+      <c r="D6">
+        <v>261</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>88.9</v>
+      </c>
+      <c r="F6">
+        <v>2009</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>315</v>
+      </c>
+      <c r="K6">
+        <v>499</v>
+      </c>
+      <c r="L6">
+        <v>63.1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3613</v>
+      </c>
+      <c r="N6">
+        <v>7.2</v>
+      </c>
+      <c r="O6">
+        <v>21</v>
+      </c>
+      <c r="P6">
+        <v>12</v>
+      </c>
+      <c r="Q6">
+        <v>36</v>
+      </c>
+      <c r="R6">
+        <v>218</v>
+      </c>
+      <c r="S6">
+        <v>88.9</v>
+      </c>
+      <c r="T6">
+        <v>35</v>
+      </c>
+      <c r="U6">
+        <v>56</v>
+      </c>
+      <c r="V6">
+        <v>1.6</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="Y6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7">
         <v>13</v>
       </c>
-      <c r="M5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" t="s">
-        <v>11</v>
-      </c>
-      <c r="T5" t="s">
-        <v>13</v>
-      </c>
-      <c r="U5" t="s">
-        <v>14</v>
-      </c>
-      <c r="V5" t="s">
-        <v>15</v>
-      </c>
-      <c r="W5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7">
-        <v>-5</v>
+      <c r="B7">
+        <v>0.6875</v>
+      </c>
+      <c r="C7">
+        <v>385</v>
+      </c>
+      <c r="D7">
+        <v>244</v>
       </c>
       <c r="E7">
-        <v>2013</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>80.3</v>
+      </c>
+      <c r="F7">
+        <v>2008</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
       </c>
       <c r="H7">
         <v>16</v>
       </c>
       <c r="I7">
-        <v>362</v>
+        <v>16</v>
       </c>
       <c r="J7">
-        <v>614</v>
+        <v>257</v>
       </c>
       <c r="K7">
-        <v>59</v>
-      </c>
-      <c r="L7" s="1">
-        <v>3912</v>
-      </c>
-      <c r="M7">
-        <v>6.4</v>
+        <v>428</v>
+      </c>
+      <c r="L7">
+        <v>60</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2971</v>
       </c>
       <c r="N7">
-        <v>19</v>
+        <v>6.9</v>
       </c>
       <c r="O7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="P7">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="Q7">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="R7">
-        <v>73.099999999999994</v>
+        <v>276</v>
       </c>
       <c r="S7">
-        <v>27</v>
+        <v>80.3</v>
       </c>
       <c r="T7">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="U7">
-        <v>4.9000000000000004</v>
+        <v>180</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="W7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X7">
+        <v>11</v>
+      </c>
+      <c r="Y7">
         <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="E8">
-        <v>2012</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>16</v>
-      </c>
-      <c r="H8">
-        <v>16</v>
-      </c>
-      <c r="I8">
-        <v>317</v>
-      </c>
-      <c r="J8">
-        <v>531</v>
-      </c>
-      <c r="K8">
-        <v>59.7</v>
-      </c>
-      <c r="L8" s="1">
-        <v>3817</v>
-      </c>
-      <c r="M8">
-        <v>7.2</v>
-      </c>
-      <c r="N8">
-        <v>22</v>
-      </c>
-      <c r="O8">
-        <v>10</v>
-      </c>
-      <c r="P8">
-        <v>35</v>
-      </c>
-      <c r="Q8">
-        <v>227</v>
-      </c>
-      <c r="R8">
-        <v>87.7</v>
-      </c>
-      <c r="S8">
-        <v>32</v>
-      </c>
-      <c r="T8">
-        <v>22</v>
-      </c>
-      <c r="U8">
-        <v>0.7</v>
-      </c>
-      <c r="V8">
-        <v>3</v>
-      </c>
-      <c r="W8">
-        <v>9</v>
-      </c>
-      <c r="X8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="E9">
-        <v>2011</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>16</v>
-      </c>
-      <c r="H9">
-        <v>16</v>
-      </c>
-      <c r="I9">
-        <v>312</v>
-      </c>
-      <c r="J9">
-        <v>542</v>
-      </c>
-      <c r="K9">
-        <v>57.6</v>
-      </c>
-      <c r="L9" s="1">
-        <v>3610</v>
-      </c>
-      <c r="M9">
-        <v>6.7</v>
-      </c>
-      <c r="N9">
-        <v>20</v>
-      </c>
-      <c r="O9">
-        <v>12</v>
-      </c>
-      <c r="P9">
-        <v>31</v>
-      </c>
-      <c r="Q9">
-        <v>203</v>
-      </c>
-      <c r="R9">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="S9">
-        <v>39</v>
-      </c>
-      <c r="T9">
-        <v>88</v>
-      </c>
-      <c r="U9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>11</v>
-      </c>
-      <c r="X9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="E10">
-        <v>2010</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>16</v>
-      </c>
-      <c r="H10">
-        <v>16</v>
-      </c>
-      <c r="I10">
-        <v>306</v>
-      </c>
-      <c r="J10">
-        <v>489</v>
-      </c>
-      <c r="K10">
-        <v>62.6</v>
-      </c>
-      <c r="L10" s="1">
-        <v>3622</v>
-      </c>
-      <c r="M10">
-        <v>7.4</v>
-      </c>
-      <c r="N10">
-        <v>25</v>
-      </c>
-      <c r="O10">
-        <v>10</v>
-      </c>
-      <c r="P10">
-        <v>40</v>
-      </c>
-      <c r="Q10">
-        <v>294</v>
-      </c>
-      <c r="R10">
-        <v>93.6</v>
-      </c>
-      <c r="S10">
-        <v>43</v>
-      </c>
-      <c r="T10">
-        <v>84</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>9</v>
-      </c>
-      <c r="X10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="E11">
-        <v>2009</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>16</v>
-      </c>
-      <c r="H11">
-        <v>16</v>
-      </c>
-      <c r="I11">
-        <v>315</v>
-      </c>
-      <c r="J11">
-        <v>499</v>
-      </c>
-      <c r="K11">
-        <v>63.1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>3613</v>
-      </c>
-      <c r="M11">
-        <v>7.2</v>
-      </c>
-      <c r="N11">
-        <v>21</v>
-      </c>
-      <c r="O11">
-        <v>12</v>
-      </c>
-      <c r="P11">
-        <v>36</v>
-      </c>
-      <c r="Q11">
-        <v>218</v>
-      </c>
-      <c r="R11">
-        <v>88.9</v>
-      </c>
-      <c r="S11">
-        <v>35</v>
-      </c>
-      <c r="T11">
-        <v>56</v>
-      </c>
-      <c r="U11">
-        <v>1.6</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>8</v>
-      </c>
-      <c r="X11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="E12">
-        <v>2008</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>16</v>
-      </c>
-      <c r="H12">
-        <v>16</v>
-      </c>
-      <c r="I12">
-        <v>257</v>
-      </c>
-      <c r="J12">
-        <v>428</v>
-      </c>
-      <c r="K12">
-        <v>60</v>
-      </c>
-      <c r="L12" s="1">
-        <v>2971</v>
-      </c>
-      <c r="M12">
-        <v>6.9</v>
-      </c>
-      <c r="N12">
-        <v>14</v>
-      </c>
-      <c r="O12">
-        <v>12</v>
-      </c>
-      <c r="P12">
-        <v>32</v>
-      </c>
-      <c r="Q12">
-        <v>276</v>
-      </c>
-      <c r="R12">
-        <v>80.3</v>
-      </c>
-      <c r="S12">
-        <v>52</v>
-      </c>
-      <c r="T12">
-        <v>180</v>
-      </c>
-      <c r="U12">
-        <v>3.5</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
-      <c r="W12">
-        <v>11</v>
-      </c>
-      <c r="X12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1869</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3103</v>
-      </c>
-      <c r="H13">
-        <v>60.2</v>
-      </c>
-      <c r="I13" s="1">
-        <v>21545</v>
-      </c>
-      <c r="J13">
-        <v>6.9</v>
-      </c>
-      <c r="K13">
-        <v>121</v>
-      </c>
-      <c r="L13">
-        <v>78</v>
-      </c>
-      <c r="M13">
-        <v>222</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1542</v>
-      </c>
-      <c r="O13">
-        <v>83.7</v>
-      </c>
-      <c r="P13">
-        <v>228</v>
-      </c>
-      <c r="Q13">
-        <v>561</v>
-      </c>
-      <c r="R13">
-        <v>2.5</v>
-      </c>
-      <c r="S13">
-        <v>8</v>
-      </c>
-      <c r="T13">
-        <v>56</v>
-      </c>
-      <c r="U13">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1857,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1868,44 +1958,54 @@
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="J1" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="K1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>239</v>
+      </c>
+      <c r="L1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -1916,13 +2016,13 @@
         <v>41887</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>27</v>
@@ -1931,17 +2031,17 @@
         <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J2" t="str">
         <f>IF(ISERROR(FIND("at",E2)=1),"HOME", "AWAY")</f>
         <v>AWAY</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -1952,13 +2052,13 @@
         <v>41897</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -1967,17 +2067,17 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J17" si="0">IF(ISERROR(FIND("at",E3)=1),"HOME", "AWAY")</f>
         <v>HOME</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2013</v>
       </c>
@@ -1988,13 +2088,13 @@
         <v>41904</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -2003,17 +2103,17 @@
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
         <v>HOME</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -2024,13 +2124,13 @@
         <v>41911</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -2039,17 +2139,17 @@
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2013</v>
       </c>
@@ -2060,13 +2160,13 @@
         <v>41918</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>26</v>
@@ -2075,17 +2175,17 @@
         <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -2096,13 +2196,13 @@
         <v>41925</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>17</v>
@@ -2111,17 +2211,17 @@
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
         <v>HOME</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -2132,13 +2232,13 @@
         <v>41932</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>16</v>
@@ -2147,17 +2247,17 @@
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -2168,13 +2268,13 @@
         <v>41946</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>18</v>
@@ -2183,17 +2283,17 @@
         <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -2204,13 +2304,13 @@
         <v>41953</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>20</v>
@@ -2219,17 +2319,17 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2013</v>
       </c>
@@ -2240,13 +2340,13 @@
         <v>41960</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -2255,17 +2355,17 @@
         <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -2276,13 +2376,13 @@
         <v>41967</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="G12">
         <v>19</v>
@@ -2291,17 +2391,17 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
         <v>HOME</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -2312,13 +2412,13 @@
         <v>41971</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G13">
         <v>22</v>
@@ -2327,17 +2427,17 @@
         <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
         <v>HOME</v>
       </c>
       <c r="K13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -2348,13 +2448,13 @@
         <v>41981</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G14">
         <v>29</v>
@@ -2363,17 +2463,17 @@
         <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
         <v>HOME</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -2384,13 +2484,13 @@
         <v>41989</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G15">
         <v>18</v>
@@ -2399,17 +2499,17 @@
         <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
       </c>
       <c r="K15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -2420,13 +2520,13 @@
         <v>41995</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -2435,2930 +2535,3002 @@
         <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4">
         <v>2013</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>17</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <v>42002</v>
       </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17">
+      <c r="D17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="4">
         <v>17</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>34</v>
       </c>
-      <c r="I17" t="s">
-        <v>254</v>
-      </c>
-      <c r="J17" t="str">
+      <c r="I17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AWAY</v>
       </c>
-      <c r="K17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="K17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17">
+        <f>COUNTIF(I2:I17,"W")/COUNTA(I2:I17)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="M17">
+        <f>SUM(G2:G17)</f>
+        <v>320</v>
+      </c>
+      <c r="N17">
+        <f>SUM(H2:H17)</f>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>2012</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>41892</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18">
+        <v>44</v>
+      </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>238</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" ref="J18:J33" si="1">IF(ISERROR(FIND("at",E18)=1),"HOME", "AWAY")</f>
+        <v>AWAY</v>
+      </c>
+      <c r="K18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>41898</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19">
+        <v>23</v>
+      </c>
+      <c r="H19">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>237</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
+        <v>AWAY</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>2012</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>41892</v>
+        <v>41905</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G20">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I20" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" ref="J20:J35" si="1">IF(ISERROR(FIND("at",E20)=1),"HOME", "AWAY")</f>
+        <f t="shared" si="1"/>
         <v>AWAY</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>2012</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2">
-        <v>41898</v>
+        <v>41909</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G21">
         <v>23</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="1"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>2012</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2">
-        <v>41905</v>
+        <v>41919</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G22">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="H22">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="1"/>
         <v>AWAY</v>
       </c>
       <c r="K22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>2012</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2">
-        <v>41909</v>
+        <v>41926</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G23">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="1"/>
         <v>HOME</v>
       </c>
       <c r="K23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>2012</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2">
-        <v>41919</v>
+        <v>41933</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="1"/>
         <v>AWAY</v>
       </c>
       <c r="K24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>2012</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2">
-        <v>41926</v>
+        <v>41947</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G25">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H25">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="1"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>2012</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2">
-        <v>41933</v>
+        <v>41954</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G26">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H26">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="1"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>2012</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2">
-        <v>41947</v>
+        <v>41961</v>
       </c>
       <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
         <v>35</v>
       </c>
-      <c r="E27" t="s">
-        <v>55</v>
-      </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G27">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="1"/>
         <v>AWAY</v>
       </c>
       <c r="K27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>2012</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2">
-        <v>41954</v>
+        <v>41968</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G28">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="1"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>2012</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
-        <v>41961</v>
+        <v>41975</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="G29">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="1"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>2012</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2">
-        <v>41968</v>
+        <v>41982</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G30">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H30">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I30" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="1"/>
         <v>AWAY</v>
       </c>
       <c r="K30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>2012</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2">
-        <v>41975</v>
+        <v>41989</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G31">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H31">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I31" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="1"/>
         <v>HOME</v>
       </c>
       <c r="K31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>2012</v>
       </c>
       <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2">
+        <v>41996</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32">
+        <v>33</v>
+      </c>
+      <c r="H32">
         <v>14</v>
       </c>
-      <c r="C32" s="2">
-        <v>41982</v>
-      </c>
-      <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32">
-        <v>28</v>
-      </c>
-      <c r="H32">
-        <v>31</v>
-      </c>
       <c r="I32" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="1"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="4">
         <v>2012</v>
       </c>
-      <c r="B33">
-        <v>15</v>
-      </c>
-      <c r="C33" s="2">
-        <v>41989</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33">
+      <c r="B33" s="4">
         <v>17</v>
       </c>
-      <c r="H33">
-        <v>34</v>
-      </c>
-      <c r="I33" t="s">
-        <v>254</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="1"/>
-        <v>HOME</v>
-      </c>
-      <c r="K33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34">
-        <v>2012</v>
-      </c>
-      <c r="B34">
-        <v>16</v>
-      </c>
-      <c r="C34" s="2">
-        <v>41996</v>
-      </c>
-      <c r="D34" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" t="s">
-        <v>120</v>
-      </c>
-      <c r="G34">
-        <v>33</v>
-      </c>
-      <c r="H34">
-        <v>14</v>
-      </c>
-      <c r="I34" t="s">
-        <v>255</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="1"/>
-        <v>HOME</v>
-      </c>
-      <c r="K34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35">
-        <v>2012</v>
-      </c>
-      <c r="B35">
+      <c r="C33" s="5">
+        <v>42003</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="4">
         <v>17</v>
       </c>
-      <c r="C35" s="2">
-        <v>42003</v>
-      </c>
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G35">
-        <v>17</v>
-      </c>
-      <c r="H35">
+      <c r="H33" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s">
-        <v>254</v>
-      </c>
-      <c r="J35" t="str">
+      <c r="I33" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J33" s="4" t="str">
         <f t="shared" si="1"/>
         <v>AWAY</v>
       </c>
+      <c r="K33" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L33">
+        <f>COUNTIF(I18:I33,"W")/COUNTA(I18:I33)</f>
+        <v>0.6875</v>
+      </c>
+      <c r="M33">
+        <f>SUM(G18:G33)</f>
+        <v>398</v>
+      </c>
+      <c r="N33">
+        <f>SUM(H18:H33)</f>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34">
+        <v>2011</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>41893</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34">
+        <v>35</v>
+      </c>
+      <c r="H34">
+        <v>7</v>
+      </c>
+      <c r="I34" t="s">
+        <v>238</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" ref="J34:J49" si="2">IF(ISERROR(FIND("at",E34)=1),"HOME", "AWAY")</f>
+        <v>HOME</v>
+      </c>
+      <c r="K34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35">
+        <v>2011</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>41900</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35">
+        <v>13</v>
+      </c>
+      <c r="H35">
+        <v>26</v>
+      </c>
+      <c r="I35" t="s">
+        <v>237</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="2"/>
+        <v>AWAY</v>
+      </c>
       <c r="K35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36">
+        <v>2011</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2">
+        <v>41907</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36">
+        <v>37</v>
+      </c>
+      <c r="H36">
+        <v>7</v>
+      </c>
+      <c r="I36" t="s">
+        <v>238</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="2"/>
+        <v>AWAY</v>
+      </c>
+      <c r="K36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37">
+        <v>2011</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2">
+        <v>41914</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37">
+        <v>34</v>
+      </c>
+      <c r="H37">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>238</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="2"/>
+        <v>HOME</v>
+      </c>
+      <c r="K37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>2011</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C38" s="2">
-        <v>41893</v>
+        <v>41928</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G38">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" ref="J38:J53" si="2">IF(ISERROR(FIND("at",E38)=1),"HOME", "AWAY")</f>
+        <f t="shared" si="2"/>
         <v>HOME</v>
       </c>
       <c r="K38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>2011</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2">
-        <v>41900</v>
+        <v>41936</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G39">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H39">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I39" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
       </c>
       <c r="K39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>2011</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C40" s="2">
-        <v>41907</v>
+        <v>41942</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F40" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G40">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="2"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>2011</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C41" s="2">
-        <v>41914</v>
+        <v>41949</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G41">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H41">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="2"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>2011</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C42" s="2">
-        <v>41928</v>
+        <v>41956</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G42">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H42">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="2"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>2011</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C43" s="2">
-        <v>41936</v>
+        <v>41963</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G43">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="H43">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
       </c>
       <c r="K43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>2011</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C44" s="2">
-        <v>41942</v>
+        <v>41967</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F44" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G44">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H44">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="2"/>
         <v>HOME</v>
       </c>
       <c r="K44" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>2011</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2">
-        <v>41949</v>
+        <v>41977</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G45">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H45">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
       </c>
       <c r="K45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>2011</v>
       </c>
       <c r="B46">
+        <v>14</v>
+      </c>
+      <c r="C46" s="2">
+        <v>41984</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46">
+        <v>24</v>
+      </c>
+      <c r="H46">
         <v>10</v>
       </c>
-      <c r="C46" s="2">
-        <v>41956</v>
-      </c>
-      <c r="D46" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" t="s">
-        <v>138</v>
-      </c>
-      <c r="F46" t="s">
-        <v>139</v>
-      </c>
-      <c r="G46">
-        <v>17</v>
-      </c>
-      <c r="H46">
-        <v>22</v>
-      </c>
       <c r="I46" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="2"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K46" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>2011</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C47" s="2">
-        <v>41963</v>
+        <v>41991</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G47">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H47">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I47" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
       </c>
       <c r="K47" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>2011</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C48" s="2">
-        <v>41967</v>
+        <v>41997</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G48">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="2"/>
         <v>HOME</v>
       </c>
       <c r="K48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="4">
         <v>2011</v>
       </c>
-      <c r="B49">
-        <v>13</v>
-      </c>
-      <c r="C49" s="2">
-        <v>41977</v>
-      </c>
-      <c r="D49" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49">
+      <c r="B49" s="4">
+        <v>17</v>
+      </c>
+      <c r="C49" s="5">
+        <v>41640</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="4">
         <v>24</v>
       </c>
-      <c r="H49">
-        <v>10</v>
-      </c>
-      <c r="I49" t="s">
-        <v>255</v>
-      </c>
-      <c r="J49" t="str">
+      <c r="H49" s="4">
+        <v>16</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J49" s="4" t="str">
         <f t="shared" si="2"/>
         <v>AWAY</v>
       </c>
-      <c r="K49" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="K49" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L49">
+        <f>COUNTIF(I34:I49,"W")/COUNTA(I34:I49)</f>
+        <v>0.75</v>
+      </c>
+      <c r="M49">
+        <f>SUM(G34:G49)</f>
+        <v>378</v>
+      </c>
+      <c r="N49">
+        <f>SUM(H34:H49)</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>41895</v>
+      </c>
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>9</v>
+      </c>
+      <c r="I50" t="s">
+        <v>238</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" ref="J50:J65" si="3">IF(ISERROR(FIND("at",E50)=1),"HOME", "AWAY")</f>
+        <v>AWAY</v>
+      </c>
+      <c r="K50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51">
+        <v>2010</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="2">
+        <v>41901</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>15</v>
+      </c>
+      <c r="I51" t="s">
+        <v>237</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="3"/>
+        <v>AWAY</v>
+      </c>
+      <c r="K51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52">
+        <v>2010</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2">
+        <v>41908</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52">
+        <v>24</v>
+      </c>
+      <c r="H52">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s">
+        <v>238</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="3"/>
+        <v>HOME</v>
+      </c>
+      <c r="K52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53">
+        <v>2010</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2">
+        <v>41915</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" t="s">
+        <v>144</v>
+      </c>
+      <c r="G53">
+        <v>17</v>
+      </c>
+      <c r="H53">
         <v>14</v>
       </c>
-      <c r="C50" s="2">
-        <v>41984</v>
-      </c>
-      <c r="D50" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" t="s">
-        <v>148</v>
-      </c>
-      <c r="F50" t="s">
-        <v>147</v>
-      </c>
-      <c r="G50">
-        <v>24</v>
-      </c>
-      <c r="H50">
-        <v>10</v>
-      </c>
-      <c r="I50" t="s">
-        <v>255</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" si="2"/>
+      <c r="I53" t="s">
+        <v>238</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="3"/>
+        <v>AWAY</v>
+      </c>
+      <c r="K53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54">
+        <v>2010</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2">
+        <v>41922</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G54">
+        <v>31</v>
+      </c>
+      <c r="H54">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s">
+        <v>238</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="3"/>
         <v>HOME</v>
       </c>
-      <c r="K50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51">
-        <v>2011</v>
-      </c>
-      <c r="B51">
-        <v>15</v>
-      </c>
-      <c r="C51" s="2">
-        <v>41991</v>
-      </c>
-      <c r="D51" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" t="s">
-        <v>109</v>
-      </c>
-      <c r="F51" t="s">
-        <v>150</v>
-      </c>
-      <c r="G51">
-        <v>14</v>
-      </c>
-      <c r="H51">
-        <v>34</v>
-      </c>
-      <c r="I51" t="s">
-        <v>254</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" si="2"/>
+      <c r="K54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55">
+        <v>2010</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2">
+        <v>41929</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55">
+        <v>20</v>
+      </c>
+      <c r="H55">
+        <v>23</v>
+      </c>
+      <c r="I55" t="s">
+        <v>237</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="3"/>
         <v>AWAY</v>
       </c>
-      <c r="K51" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52">
-        <v>2011</v>
-      </c>
-      <c r="B52">
-        <v>16</v>
-      </c>
-      <c r="C52" s="2">
-        <v>41997</v>
-      </c>
-      <c r="D52" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" t="s">
-        <v>36</v>
-      </c>
-      <c r="F52" t="s">
-        <v>152</v>
-      </c>
-      <c r="G52">
-        <v>20</v>
-      </c>
-      <c r="H52">
-        <v>14</v>
-      </c>
-      <c r="I52" t="s">
-        <v>255</v>
-      </c>
-      <c r="J52" t="str">
-        <f t="shared" si="2"/>
-        <v>HOME</v>
-      </c>
-      <c r="K52" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53">
-        <v>2011</v>
-      </c>
-      <c r="B53">
-        <v>17</v>
-      </c>
-      <c r="C53" s="2">
-        <v>41640</v>
-      </c>
-      <c r="D53" t="s">
-        <v>154</v>
-      </c>
-      <c r="E53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F53" t="s">
-        <v>155</v>
-      </c>
-      <c r="G53">
-        <v>24</v>
-      </c>
-      <c r="H53">
-        <v>16</v>
-      </c>
-      <c r="I53" t="s">
-        <v>255</v>
-      </c>
-      <c r="J53" t="str">
-        <f t="shared" si="2"/>
-        <v>AWAY</v>
-      </c>
-      <c r="K53" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="K55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>2010</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C56" s="2">
-        <v>41895</v>
+        <v>41936</v>
       </c>
       <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" t="s">
+        <v>148</v>
+      </c>
+      <c r="G56">
+        <v>37</v>
+      </c>
+      <c r="H56">
+        <v>34</v>
+      </c>
+      <c r="I56" t="s">
+        <v>238</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="3"/>
+        <v>HOME</v>
+      </c>
+      <c r="K56" t="s">
         <v>83</v>
       </c>
-      <c r="E56" t="s">
-        <v>157</v>
-      </c>
-      <c r="F56" t="s">
-        <v>158</v>
-      </c>
-      <c r="G56">
-        <v>10</v>
-      </c>
-      <c r="H56">
-        <v>9</v>
-      </c>
-      <c r="I56" t="s">
-        <v>255</v>
-      </c>
-      <c r="J56" t="str">
-        <f t="shared" ref="J56:J71" si="3">IF(ISERROR(FIND("at",E56)=1),"HOME", "AWAY")</f>
-        <v>AWAY</v>
-      </c>
-      <c r="K56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>2010</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C57" s="2">
-        <v>41901</v>
+        <v>41950</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="F57" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G57">
+        <v>26</v>
+      </c>
+      <c r="H57">
         <v>10</v>
       </c>
-      <c r="H57">
-        <v>15</v>
-      </c>
       <c r="I57" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="3"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>2010</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C58" s="2">
-        <v>41908</v>
+        <v>41954</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="F58" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G58">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H58">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I58" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="3"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K58" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>2010</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C59" s="2">
-        <v>41915</v>
+        <v>41964</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="F59" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G59">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H59">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I59" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="3"/>
         <v>AWAY</v>
       </c>
       <c r="K59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>2010</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C60" s="2">
-        <v>41922</v>
+        <v>41971</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="E60" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="F60" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G60">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H60">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="3"/>
         <v>HOME</v>
       </c>
       <c r="K60" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>2010</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C61" s="2">
-        <v>41929</v>
+        <v>41978</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E61" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="G61">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H61">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I61" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="3"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K61" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>2010</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C62" s="2">
-        <v>41936</v>
+        <v>41986</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="F62" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G62">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I62" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="3"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K62" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>2010</v>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C63" s="2">
-        <v>41950</v>
+        <v>41992</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F63" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G63">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I63" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="3"/>
         <v>HOME</v>
       </c>
       <c r="K63" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>2010</v>
       </c>
       <c r="B64">
+        <v>16</v>
+      </c>
+      <c r="C64" s="2">
+        <v>41999</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" t="s">
+        <v>163</v>
+      </c>
+      <c r="G64">
+        <v>20</v>
+      </c>
+      <c r="H64">
         <v>10</v>
       </c>
-      <c r="C64" s="2">
-        <v>41954</v>
-      </c>
-      <c r="D64" t="s">
-        <v>88</v>
-      </c>
-      <c r="E64" t="s">
-        <v>168</v>
-      </c>
-      <c r="F64" t="s">
-        <v>169</v>
-      </c>
-      <c r="G64">
-        <v>21</v>
-      </c>
-      <c r="H64">
-        <v>26</v>
-      </c>
       <c r="I64" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="3"/>
         <v>AWAY</v>
       </c>
       <c r="K64" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="4">
         <v>2010</v>
       </c>
-      <c r="B65">
-        <v>11</v>
-      </c>
-      <c r="C65" s="2">
-        <v>41964</v>
-      </c>
-      <c r="D65" t="s">
-        <v>35</v>
-      </c>
-      <c r="E65" t="s">
-        <v>170</v>
-      </c>
-      <c r="F65" t="s">
-        <v>171</v>
-      </c>
-      <c r="G65">
-        <v>37</v>
-      </c>
-      <c r="H65">
+      <c r="B65" s="4">
+        <v>17</v>
+      </c>
+      <c r="C65" s="5">
+        <v>41641</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G65" s="4">
         <v>13</v>
       </c>
-      <c r="I65" t="s">
-        <v>255</v>
-      </c>
-      <c r="J65" t="str">
+      <c r="H65" s="4">
+        <v>7</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J65" s="4" t="str">
         <f t="shared" si="3"/>
         <v>AWAY</v>
       </c>
-      <c r="K65" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="K65" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L65">
+        <f>COUNTIF(I50:I65,"W")/COUNTA(I50:I65)</f>
+        <v>0.75</v>
+      </c>
+      <c r="M65">
+        <f>SUM(G50:G65)</f>
+        <v>357</v>
+      </c>
+      <c r="N65">
+        <f>SUM(H50:H65)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C66" s="2">
-        <v>41971</v>
-      </c>
-      <c r="D66" t="s">
-        <v>172</v>
+        <v>41895</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.54166666666666663</v>
       </c>
       <c r="E66" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F66" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G66">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I66" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J66:J81" si="4">IF(ISERROR(FIND("at",E66)=1),"HOME", "AWAY")</f>
         <v>HOME</v>
       </c>
       <c r="K66" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B67">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C67" s="2">
-        <v>41978</v>
-      </c>
-      <c r="D67" t="s">
-        <v>88</v>
+        <v>41902</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.67708333333333337</v>
       </c>
       <c r="E67" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="F67" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G67">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I67" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="3"/>
-        <v>HOME</v>
+        <f t="shared" si="4"/>
+        <v>AWAY</v>
       </c>
       <c r="K67" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B68">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C68" s="2">
-        <v>41986</v>
-      </c>
-      <c r="D68" t="s">
-        <v>31</v>
+        <v>41909</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.54166666666666663</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="F68" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G68">
         <v>34</v>
       </c>
       <c r="H68">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="I68" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>HOME</v>
+      </c>
+      <c r="K68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69">
+        <v>2009</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" s="2">
+        <v>41916</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E69" t="s">
+        <v>146</v>
+      </c>
+      <c r="F69" t="s">
+        <v>171</v>
+      </c>
+      <c r="G69">
+        <v>21</v>
+      </c>
+      <c r="H69">
+        <v>27</v>
+      </c>
+      <c r="I69" t="s">
+        <v>237</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="4"/>
         <v>AWAY</v>
       </c>
-      <c r="K68" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69">
-        <v>2010</v>
-      </c>
-      <c r="B69">
-        <v>15</v>
-      </c>
-      <c r="C69" s="2">
-        <v>41992</v>
-      </c>
-      <c r="D69" t="s">
-        <v>35</v>
-      </c>
-      <c r="E69" t="s">
-        <v>178</v>
-      </c>
-      <c r="F69" t="s">
-        <v>179</v>
-      </c>
-      <c r="G69">
+      <c r="K69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70">
+        <v>2009</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70" s="2">
+        <v>41923</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s">
+        <v>172</v>
+      </c>
+      <c r="G70">
+        <v>14</v>
+      </c>
+      <c r="H70">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s">
+        <v>237</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="4"/>
+        <v>AWAY</v>
+      </c>
+      <c r="K70" t="s">
         <v>30</v>
       </c>
-      <c r="H69">
-        <v>24</v>
-      </c>
-      <c r="I69" t="s">
-        <v>255</v>
-      </c>
-      <c r="J69" t="str">
-        <f t="shared" si="3"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71">
+        <v>2009</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71" s="2">
+        <v>41930</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E71" t="s">
+        <v>173</v>
+      </c>
+      <c r="F71" t="s">
+        <v>174</v>
+      </c>
+      <c r="G71">
+        <v>31</v>
+      </c>
+      <c r="H71">
+        <v>33</v>
+      </c>
+      <c r="I71" t="s">
+        <v>237</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="4"/>
+        <v>AWAY</v>
+      </c>
+      <c r="K71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72">
+        <v>2009</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72" s="2">
+        <v>41944</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E72" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" t="s">
+        <v>175</v>
+      </c>
+      <c r="G72">
+        <v>30</v>
+      </c>
+      <c r="H72">
+        <v>7</v>
+      </c>
+      <c r="I72" t="s">
+        <v>238</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="4"/>
         <v>HOME</v>
       </c>
-      <c r="K69" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70">
-        <v>2010</v>
-      </c>
-      <c r="B70">
-        <v>16</v>
-      </c>
-      <c r="C70" s="2">
-        <v>41999</v>
-      </c>
-      <c r="D70" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70" t="s">
-        <v>55</v>
-      </c>
-      <c r="F70" t="s">
-        <v>180</v>
-      </c>
-      <c r="G70">
-        <v>20</v>
-      </c>
-      <c r="H70">
-        <v>10</v>
-      </c>
-      <c r="I70" t="s">
-        <v>255</v>
-      </c>
-      <c r="J70" t="str">
-        <f t="shared" si="3"/>
-        <v>AWAY</v>
-      </c>
-      <c r="K70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71">
-        <v>2010</v>
-      </c>
-      <c r="B71">
-        <v>17</v>
-      </c>
-      <c r="C71" s="2">
-        <v>41641</v>
-      </c>
-      <c r="D71" t="s">
-        <v>35</v>
-      </c>
-      <c r="E71" t="s">
-        <v>58</v>
-      </c>
-      <c r="F71" t="s">
-        <v>181</v>
-      </c>
-      <c r="G71">
-        <v>13</v>
-      </c>
-      <c r="H71">
-        <v>7</v>
-      </c>
-      <c r="I71" t="s">
-        <v>255</v>
-      </c>
-      <c r="J71" t="str">
-        <f t="shared" si="3"/>
-        <v>AWAY</v>
-      </c>
-      <c r="K71" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="K72" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73">
         <v>2009</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C73" s="2">
-        <v>41895</v>
+        <v>41951</v>
       </c>
       <c r="D73" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="E73" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="F73" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G73">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H73">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I73" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" ref="J73:J88" si="4">IF(ISERROR(FIND("at",E73)=1),"HOME", "AWAY")</f>
-        <v>HOME</v>
+        <f t="shared" si="4"/>
+        <v>AWAY</v>
       </c>
       <c r="K73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74">
         <v>2009</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C74" s="2">
-        <v>41902</v>
+        <v>41959</v>
       </c>
       <c r="D74" s="3">
-        <v>0.67708333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G74">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H74">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="4"/>
         <v>AWAY</v>
       </c>
       <c r="K74" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75">
         <v>2009</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C75" s="2">
-        <v>41909</v>
+        <v>41965</v>
       </c>
       <c r="D75" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="F75" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G75">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I75" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J75" t="str">
         <f t="shared" si="4"/>
         <v>HOME</v>
       </c>
       <c r="K75" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76">
         <v>2009</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C76" s="2">
-        <v>41916</v>
+        <v>41972</v>
       </c>
       <c r="D76" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="F76" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="G76">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H76">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I76" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" si="4"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77">
         <v>2009</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C77" s="2">
-        <v>41923</v>
+        <v>41980</v>
       </c>
       <c r="D77" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E77" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="F77" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G77">
         <v>14</v>
       </c>
       <c r="H77">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I77" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J77" t="str">
         <f t="shared" si="4"/>
         <v>AWAY</v>
       </c>
       <c r="K77" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78">
         <v>2009</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C78" s="2">
-        <v>41930</v>
+        <v>41986</v>
       </c>
       <c r="D78" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="E78" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F78" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G78">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H78">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="J78" t="str">
         <f t="shared" si="4"/>
-        <v>AWAY</v>
+        <v>HOME</v>
       </c>
       <c r="K78" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79">
         <v>2009</v>
       </c>
       <c r="B79">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C79" s="2">
-        <v>41944</v>
+        <v>41993</v>
       </c>
       <c r="D79" s="3">
-        <v>0.54166666666666663</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="E79" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="F79" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G79">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>7</v>
       </c>
       <c r="I79" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J79" t="str">
         <f t="shared" si="4"/>
         <v>HOME</v>
       </c>
       <c r="K79" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80">
         <v>2009</v>
       </c>
       <c r="B80">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C80" s="2">
-        <v>41951</v>
+        <v>42000</v>
       </c>
       <c r="D80" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="E80" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G80">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H80">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I80" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J80" t="str">
         <f t="shared" si="4"/>
         <v>AWAY</v>
       </c>
       <c r="K80" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="4">
         <v>2009</v>
       </c>
-      <c r="B81">
-        <v>10</v>
-      </c>
-      <c r="C81" s="2">
-        <v>41959</v>
-      </c>
-      <c r="D81" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="E81" t="s">
-        <v>55</v>
-      </c>
-      <c r="F81" t="s">
-        <v>196</v>
-      </c>
-      <c r="G81">
-        <v>16</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81" t="s">
-        <v>255</v>
-      </c>
-      <c r="J81" t="str">
+      <c r="B81" s="4">
+        <v>17</v>
+      </c>
+      <c r="C81" s="6">
+        <v>40181</v>
+      </c>
+      <c r="D81" s="7">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G81" s="4">
+        <v>21</v>
+      </c>
+      <c r="H81" s="4">
+        <v>13</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J81" s="4" t="str">
         <f t="shared" si="4"/>
         <v>AWAY</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L81">
+        <f>COUNTIF(I66:I81,"W")/COUNTA(I66:I81)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="M81">
+        <f>SUM(G66:G81)</f>
+        <v>391</v>
+      </c>
+      <c r="N81">
+        <f>SUM(H66:H81)</f>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82">
+        <v>2008</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>194</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" t="s">
+        <v>157</v>
+      </c>
+      <c r="G82">
+        <v>17</v>
+      </c>
+      <c r="H82">
+        <v>10</v>
+      </c>
+      <c r="I82" t="s">
+        <v>238</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" ref="J82:J97" si="5">IF(ISERROR(FIND("at",E82)=1),"HOME", "AWAY")</f>
+        <v>AWAY</v>
+      </c>
+      <c r="K82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83">
+        <v>2008</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83" t="s">
+        <v>196</v>
+      </c>
+      <c r="E83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82">
-        <v>2009</v>
-      </c>
-      <c r="B82">
-        <v>11</v>
-      </c>
-      <c r="C82" s="2">
-        <v>41965</v>
-      </c>
-      <c r="D82" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E82" t="s">
-        <v>148</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="G83">
+        <v>28</v>
+      </c>
+      <c r="H83">
+        <v>10</v>
+      </c>
+      <c r="I83" t="s">
+        <v>238</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="5"/>
+        <v>HOME</v>
+      </c>
+      <c r="K83" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84">
+        <v>2008</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
         <v>198</v>
       </c>
-      <c r="G82">
-        <v>15</v>
-      </c>
-      <c r="H82">
-        <v>17</v>
-      </c>
-      <c r="I82" t="s">
-        <v>254</v>
-      </c>
-      <c r="J82" t="str">
-        <f t="shared" si="4"/>
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s">
+        <v>50</v>
+      </c>
+      <c r="F84" t="s">
+        <v>199</v>
+      </c>
+      <c r="G84">
+        <v>20</v>
+      </c>
+      <c r="H84">
+        <v>23</v>
+      </c>
+      <c r="I84" t="s">
+        <v>237</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
-      <c r="K82" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83">
-        <v>2009</v>
-      </c>
-      <c r="B83">
-        <v>12</v>
-      </c>
-      <c r="C83" s="2">
-        <v>41972</v>
-      </c>
-      <c r="D83" s="3">
-        <v>0.84722222222222221</v>
-      </c>
-      <c r="E83" t="s">
-        <v>67</v>
-      </c>
-      <c r="F83" t="s">
-        <v>59</v>
-      </c>
-      <c r="G83">
-        <v>20</v>
-      </c>
-      <c r="H83">
-        <v>17</v>
-      </c>
-      <c r="I83" t="s">
-        <v>255</v>
-      </c>
-      <c r="J83" t="str">
-        <f t="shared" si="4"/>
+      <c r="K84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85">
+        <v>2008</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" t="s">
+        <v>200</v>
+      </c>
+      <c r="F85" t="s">
+        <v>158</v>
+      </c>
+      <c r="G85">
+        <v>10</v>
+      </c>
+      <c r="H85">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>237</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
-      <c r="K83" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84">
-        <v>2009</v>
-      </c>
-      <c r="B84">
+      <c r="K85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86">
+        <v>2008</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" t="s">
+        <v>131</v>
+      </c>
+      <c r="F86" t="s">
+        <v>203</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>31</v>
+      </c>
+      <c r="I86" t="s">
+        <v>237</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="5"/>
+        <v>HOME</v>
+      </c>
+      <c r="K86" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87">
+        <v>2008</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" t="s">
+        <v>149</v>
+      </c>
+      <c r="F87" t="s">
+        <v>206</v>
+      </c>
+      <c r="G87">
+        <v>27</v>
+      </c>
+      <c r="H87">
         <v>13</v>
       </c>
-      <c r="C84" s="2">
-        <v>41980</v>
-      </c>
-      <c r="D84" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="E84" t="s">
-        <v>201</v>
-      </c>
-      <c r="F84" t="s">
-        <v>202</v>
-      </c>
-      <c r="G84">
-        <v>14</v>
-      </c>
-      <c r="H84">
+      <c r="I87" t="s">
+        <v>238</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="5"/>
+        <v>HOME</v>
+      </c>
+      <c r="K87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88">
+        <v>2008</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" t="s">
+        <v>86</v>
+      </c>
+      <c r="F88" t="s">
+        <v>208</v>
+      </c>
+      <c r="G88">
+        <v>29</v>
+      </c>
+      <c r="H88">
+        <v>10</v>
+      </c>
+      <c r="I88" t="s">
+        <v>238</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="5"/>
+        <v>HOME</v>
+      </c>
+      <c r="K88" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89">
+        <v>2008</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>209</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" t="s">
+        <v>210</v>
+      </c>
+      <c r="G89">
+        <v>37</v>
+      </c>
+      <c r="H89">
         <v>27</v>
       </c>
-      <c r="I84" t="s">
-        <v>254</v>
-      </c>
-      <c r="J84" t="str">
-        <f t="shared" si="4"/>
-        <v>AWAY</v>
-      </c>
-      <c r="K84" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85">
-        <v>2009</v>
-      </c>
-      <c r="B85">
-        <v>14</v>
-      </c>
-      <c r="C85" s="2">
-        <v>41986</v>
-      </c>
-      <c r="D85" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E85" t="s">
-        <v>203</v>
-      </c>
-      <c r="F85" t="s">
-        <v>204</v>
-      </c>
-      <c r="G85">
-        <v>48</v>
-      </c>
-      <c r="H85">
-        <v>3</v>
-      </c>
-      <c r="I85" t="s">
-        <v>255</v>
-      </c>
-      <c r="J85" t="str">
-        <f t="shared" si="4"/>
+      <c r="I89" t="s">
+        <v>238</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
-      <c r="K85" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86">
-        <v>2009</v>
-      </c>
-      <c r="B86">
-        <v>15</v>
-      </c>
-      <c r="C86" s="2">
-        <v>41993</v>
-      </c>
-      <c r="D86" s="3">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="E86" t="s">
-        <v>205</v>
-      </c>
-      <c r="F86" t="s">
-        <v>206</v>
-      </c>
-      <c r="G86">
-        <v>31</v>
-      </c>
-      <c r="H86">
-        <v>7</v>
-      </c>
-      <c r="I86" t="s">
-        <v>255</v>
-      </c>
-      <c r="J86" t="str">
-        <f t="shared" si="4"/>
-        <v>HOME</v>
-      </c>
-      <c r="K86" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87">
-        <v>2009</v>
-      </c>
-      <c r="B87">
-        <v>16</v>
-      </c>
-      <c r="C87" s="2">
-        <v>42000</v>
-      </c>
-      <c r="D87" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E87" t="s">
-        <v>52</v>
-      </c>
-      <c r="F87" t="s">
-        <v>207</v>
-      </c>
-      <c r="G87">
-        <v>20</v>
-      </c>
-      <c r="H87">
-        <v>23</v>
-      </c>
-      <c r="I87" t="s">
-        <v>254</v>
-      </c>
-      <c r="J87" t="str">
-        <f t="shared" si="4"/>
-        <v>AWAY</v>
-      </c>
-      <c r="K87" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88">
-        <v>2009</v>
-      </c>
-      <c r="B88">
-        <v>17</v>
-      </c>
-      <c r="C88" s="4">
-        <v>40181</v>
-      </c>
-      <c r="D88" s="3">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="E88" t="s">
-        <v>208</v>
-      </c>
-      <c r="F88" t="s">
-        <v>209</v>
-      </c>
-      <c r="G88">
-        <v>21</v>
-      </c>
-      <c r="H88">
-        <v>13</v>
-      </c>
-      <c r="I88" t="s">
-        <v>255</v>
-      </c>
-      <c r="J88" t="str">
-        <f t="shared" si="4"/>
-        <v>AWAY</v>
-      </c>
-      <c r="K88" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="K89" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90">
         <v>2008</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D90" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="G90">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="H90">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I90" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J90" t="str">
-        <f t="shared" ref="J90:J105" si="5">IF(ISERROR(FIND("at",E90)=1),"HOME", "AWAY")</f>
-        <v>AWAY</v>
+        <f t="shared" si="5"/>
+        <v>HOME</v>
       </c>
       <c r="K90" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91">
         <v>2008</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D91" t="s">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="F91" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G91">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H91">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I91" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J91" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K91" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92">
         <v>2008</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D92" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E92" t="s">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="F92" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G92">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H92">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I92" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="J92" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K92" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93">
         <v>2008</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D93" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E93" t="s">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G93">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H93">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I93" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="J93" t="str">
         <f t="shared" si="5"/>
-        <v>HOME</v>
+        <v>AWAY</v>
       </c>
       <c r="K93" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94">
         <v>2008</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D94" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="E94" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="F94" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H94">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I94" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="J94" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K94" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95">
         <v>2008</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D95" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="E95" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="F95" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G95">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="H95">
         <v>13</v>
       </c>
       <c r="I95" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="J95" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K95" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96">
         <v>2008</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D96" t="s">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="E96" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F96" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G96">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I96" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="J96" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
       <c r="K96" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="4">
         <v>2008</v>
       </c>
-      <c r="B97">
-        <v>9</v>
-      </c>
-      <c r="C97" t="s">
-        <v>226</v>
-      </c>
-      <c r="D97" t="s">
-        <v>35</v>
-      </c>
-      <c r="E97" t="s">
-        <v>36</v>
-      </c>
-      <c r="F97" t="s">
-        <v>227</v>
-      </c>
-      <c r="G97">
-        <v>37</v>
-      </c>
-      <c r="H97">
+      <c r="B97" s="4">
+        <v>17</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G97" s="4">
         <v>27</v>
       </c>
-      <c r="I97" t="s">
-        <v>255</v>
-      </c>
-      <c r="J97" t="str">
+      <c r="H97" s="4">
+        <v>7</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J97" s="4" t="str">
         <f t="shared" si="5"/>
         <v>HOME</v>
       </c>
-      <c r="K97" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98">
-        <v>2008</v>
-      </c>
-      <c r="B98">
-        <v>10</v>
-      </c>
-      <c r="C98" t="s">
-        <v>229</v>
-      </c>
-      <c r="D98" t="s">
-        <v>35</v>
-      </c>
-      <c r="E98" t="s">
-        <v>39</v>
-      </c>
-      <c r="F98" t="s">
-        <v>230</v>
-      </c>
-      <c r="G98">
-        <v>41</v>
-      </c>
-      <c r="H98">
-        <v>13</v>
-      </c>
-      <c r="I98" t="s">
-        <v>255</v>
-      </c>
-      <c r="J98" t="str">
-        <f t="shared" si="5"/>
-        <v>HOME</v>
-      </c>
-      <c r="K98" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99">
-        <v>2008</v>
-      </c>
-      <c r="B99">
-        <v>11</v>
-      </c>
-      <c r="C99" t="s">
-        <v>231</v>
-      </c>
-      <c r="D99" t="s">
-        <v>35</v>
-      </c>
-      <c r="E99" t="s">
-        <v>119</v>
-      </c>
-      <c r="F99" t="s">
-        <v>232</v>
-      </c>
-      <c r="G99">
-        <v>10</v>
-      </c>
-      <c r="H99">
-        <v>30</v>
-      </c>
-      <c r="I99" t="s">
-        <v>254</v>
-      </c>
-      <c r="J99" t="str">
-        <f t="shared" si="5"/>
-        <v>HOME</v>
-      </c>
-      <c r="K99" t="s">
+      <c r="K97" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100">
-        <v>2008</v>
-      </c>
-      <c r="B100">
-        <v>12</v>
-      </c>
-      <c r="C100" t="s">
-        <v>235</v>
-      </c>
-      <c r="D100" t="s">
-        <v>35</v>
-      </c>
-      <c r="E100" t="s">
-        <v>234</v>
-      </c>
-      <c r="F100" t="s">
-        <v>236</v>
-      </c>
-      <c r="G100">
-        <v>36</v>
-      </c>
-      <c r="H100">
-        <v>7</v>
-      </c>
-      <c r="I100" t="s">
-        <v>255</v>
-      </c>
-      <c r="J100" t="str">
-        <f t="shared" si="5"/>
-        <v>HOME</v>
-      </c>
-      <c r="K100" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101">
-        <v>2008</v>
-      </c>
-      <c r="B101">
-        <v>13</v>
-      </c>
-      <c r="C101" t="s">
-        <v>238</v>
-      </c>
-      <c r="D101" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" t="s">
-        <v>58</v>
-      </c>
-      <c r="F101" t="s">
-        <v>186</v>
-      </c>
-      <c r="G101">
-        <v>34</v>
-      </c>
-      <c r="H101">
-        <v>3</v>
-      </c>
-      <c r="I101" t="s">
-        <v>255</v>
-      </c>
-      <c r="J101" t="str">
-        <f t="shared" si="5"/>
-        <v>AWAY</v>
-      </c>
-      <c r="K101" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102">
-        <v>2008</v>
-      </c>
-      <c r="B102">
-        <v>14</v>
-      </c>
-      <c r="C102" t="s">
-        <v>240</v>
-      </c>
-      <c r="D102" t="s">
-        <v>241</v>
-      </c>
-      <c r="E102" t="s">
-        <v>239</v>
-      </c>
-      <c r="F102" t="s">
-        <v>147</v>
-      </c>
-      <c r="G102">
-        <v>24</v>
-      </c>
-      <c r="H102">
-        <v>10</v>
-      </c>
-      <c r="I102" t="s">
-        <v>255</v>
-      </c>
-      <c r="J102" t="str">
-        <f t="shared" si="5"/>
-        <v>HOME</v>
-      </c>
-      <c r="K102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103">
-        <v>2008</v>
-      </c>
-      <c r="B103">
-        <v>15</v>
-      </c>
-      <c r="C103" t="s">
-        <v>242</v>
-      </c>
-      <c r="D103" t="s">
-        <v>213</v>
-      </c>
-      <c r="E103" t="s">
-        <v>67</v>
-      </c>
-      <c r="F103" t="s">
-        <v>243</v>
-      </c>
-      <c r="G103">
-        <v>9</v>
-      </c>
-      <c r="H103">
-        <v>13</v>
-      </c>
-      <c r="I103" t="s">
-        <v>254</v>
-      </c>
-      <c r="J103" t="str">
-        <f t="shared" si="5"/>
-        <v>HOME</v>
-      </c>
-      <c r="K103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104">
-        <v>2008</v>
-      </c>
-      <c r="B104">
-        <v>16</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="L97">
+        <f>COUNTIF(I82:I97,"W")/COUNTA(I82:I97)</f>
+        <v>0.6875</v>
+      </c>
+      <c r="M97">
+        <f>SUM(G82:G97)</f>
+        <v>385</v>
+      </c>
+      <c r="N97">
+        <f>SUM(H82:H97)</f>
         <v>244</v>
-      </c>
-      <c r="D104" t="s">
-        <v>245</v>
-      </c>
-      <c r="E104" t="s">
-        <v>95</v>
-      </c>
-      <c r="F104" t="s">
-        <v>246</v>
-      </c>
-      <c r="G104">
-        <v>33</v>
-      </c>
-      <c r="H104">
-        <v>24</v>
-      </c>
-      <c r="I104" t="s">
-        <v>255</v>
-      </c>
-      <c r="J104" t="str">
-        <f t="shared" si="5"/>
-        <v>HOME</v>
-      </c>
-      <c r="K104" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105">
-        <v>2008</v>
-      </c>
-      <c r="B105">
-        <v>17</v>
-      </c>
-      <c r="C105" t="s">
-        <v>248</v>
-      </c>
-      <c r="D105" t="s">
-        <v>213</v>
-      </c>
-      <c r="E105" t="s">
-        <v>247</v>
-      </c>
-      <c r="F105" t="s">
-        <v>249</v>
-      </c>
-      <c r="G105">
-        <v>27</v>
-      </c>
-      <c r="H105">
-        <v>7</v>
-      </c>
-      <c r="I105" t="s">
-        <v>255</v>
-      </c>
-      <c r="J105" t="str">
-        <f t="shared" si="5"/>
-        <v>HOME</v>
-      </c>
-      <c r="K105" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
